--- a/qc_rules_module2.xlsx
+++ b/qc_rules_module2.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petersjm/Documents/qaqc_testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AED40FE-9C87-A94A-A9EA-F86FF86F1595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DBE01E-FC4C-A542-80C1-84E4A0180266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="2460" windowWidth="21600" windowHeight="11380" xr2:uid="{FD13B602-C096-4BB5-844E-CF79CE24FC1B}"/>
+    <workbookView xWindow="42220" yWindow="-120" windowWidth="21600" windowHeight="11380" activeTab="3" xr2:uid="{FD13B602-C096-4BB5-844E-CF79CE24FC1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Edited_Rules" sheetId="3" r:id="rId1"/>
     <sheet name="Custom Rules or Metrics" sheetId="2" r:id="rId2"/>
     <sheet name="IMS_Rules" sheetId="1" r:id="rId3"/>
+    <sheet name="hhmm_rules" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">IMS_Rules!$J$1:$J$463</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9679" uniqueCount="2284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9787" uniqueCount="2293">
   <si>
     <t>Source Question</t>
   </si>
@@ -6893,13 +6894,40 @@
   </si>
   <si>
     <t>Only can be selected if no other variables selected in ESTROHOR</t>
+  </si>
+  <si>
+    <t>214870856</t>
+  </si>
+  <si>
+    <t>NA or CrossValid1 is 24hr time</t>
+  </si>
+  <si>
+    <t>195662769</t>
+  </si>
+  <si>
+    <t>698673038</t>
+  </si>
+  <si>
+    <t>353358909</t>
+  </si>
+  <si>
+    <t>823919522</t>
+  </si>
+  <si>
+    <t>636757313</t>
+  </si>
+  <si>
+    <t>NA or is 24hr time</t>
+  </si>
+  <si>
+    <t>580367946</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6935,6 +6963,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="-Apple-System"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -6956,12 +6998,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7278,12 +7322,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DDBE5C4-0364-4693-9076-4A52D82C0871}">
   <dimension ref="A1:AT461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="127.33203125" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
@@ -7291,7 +7335,7 @@
     <col min="7" max="7" width="163" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7431,7 +7475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7495,7 +7539,7 @@
       <c r="AS2" s="4"/>
       <c r="AT2" s="4"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -7557,7 +7601,7 @@
       <c r="AS3" s="4"/>
       <c r="AT3" s="4"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -7619,7 +7663,7 @@
       <c r="AS4" s="4"/>
       <c r="AT4" s="4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
@@ -7689,7 +7733,7 @@
       <c r="AS5" s="4"/>
       <c r="AT5" s="4"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -7759,7 +7803,7 @@
       <c r="AS6" s="4"/>
       <c r="AT6" s="4"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -7829,7 +7873,7 @@
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -7899,7 +7943,7 @@
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -7969,7 +8013,7 @@
       <c r="AS9" s="4"/>
       <c r="AT9" s="4"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -8039,7 +8083,7 @@
       <c r="AS10" s="4"/>
       <c r="AT10" s="4"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -8109,7 +8153,7 @@
       <c r="AS11" s="4"/>
       <c r="AT11" s="4"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="4" t="s">
         <v>90</v>
       </c>
@@ -8185,7 +8229,7 @@
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="4" t="s">
         <v>90</v>
       </c>
@@ -8261,7 +8305,7 @@
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="4" t="s">
         <v>102</v>
       </c>
@@ -8337,7 +8381,7 @@
       <c r="AS14" s="4"/>
       <c r="AT14" s="4"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -8413,7 +8457,7 @@
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="4" t="s">
         <v>113</v>
       </c>
@@ -8489,7 +8533,7 @@
       <c r="AS16" s="4"/>
       <c r="AT16" s="4"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="4" t="s">
         <v>113</v>
       </c>
@@ -8565,7 +8609,7 @@
       <c r="AS17" s="4"/>
       <c r="AT17" s="4"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -8641,7 +8685,7 @@
       <c r="AS18" s="4"/>
       <c r="AT18" s="4"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="4" t="s">
         <v>124</v>
       </c>
@@ -8717,7 +8761,7 @@
       <c r="AS19" s="4"/>
       <c r="AT19" s="4"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="4" t="s">
         <v>135</v>
       </c>
@@ -8793,7 +8837,7 @@
       <c r="AS20" s="4"/>
       <c r="AT20" s="4"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="4" t="s">
         <v>135</v>
       </c>
@@ -8869,7 +8913,7 @@
       <c r="AS21" s="4"/>
       <c r="AT21" s="4"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="4" t="s">
         <v>146</v>
       </c>
@@ -8945,7 +8989,7 @@
       <c r="AS22" s="4"/>
       <c r="AT22" s="4"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="4" t="s">
         <v>146</v>
       </c>
@@ -9021,7 +9065,7 @@
       <c r="AS23" s="4"/>
       <c r="AT23" s="4"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="4" t="s">
         <v>157</v>
       </c>
@@ -9097,7 +9141,7 @@
       <c r="AS24" s="4"/>
       <c r="AT24" s="4"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="4" t="s">
         <v>157</v>
       </c>
@@ -9173,7 +9217,7 @@
       <c r="AS25" s="4"/>
       <c r="AT25" s="4"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="4" t="s">
         <v>168</v>
       </c>
@@ -9249,7 +9293,7 @@
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="4" t="s">
         <v>168</v>
       </c>
@@ -9327,7 +9371,7 @@
       <c r="AS27" s="4"/>
       <c r="AT27" s="4"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="4" t="s">
         <v>177</v>
       </c>
@@ -9403,7 +9447,7 @@
       <c r="AS28" s="4"/>
       <c r="AT28" s="4"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="4" t="s">
         <v>177</v>
       </c>
@@ -9481,7 +9525,7 @@
       <c r="AS29" s="4"/>
       <c r="AT29" s="4"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="4" t="s">
         <v>185</v>
       </c>
@@ -9557,7 +9601,7 @@
       <c r="AS30" s="4"/>
       <c r="AT30" s="4"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="4" t="s">
         <v>185</v>
       </c>
@@ -9635,7 +9679,7 @@
       <c r="AS31" s="4"/>
       <c r="AT31" s="4"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="4" t="s">
         <v>193</v>
       </c>
@@ -9711,7 +9755,7 @@
       <c r="AS32" s="4"/>
       <c r="AT32" s="4"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="4" t="s">
         <v>193</v>
       </c>
@@ -9789,7 +9833,7 @@
       <c r="AS33" s="4"/>
       <c r="AT33" s="4"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="4" t="s">
         <v>201</v>
       </c>
@@ -9865,7 +9909,7 @@
       <c r="AS34" s="4"/>
       <c r="AT34" s="4"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="4" t="s">
         <v>201</v>
       </c>
@@ -9943,7 +9987,7 @@
       <c r="AS35" s="4"/>
       <c r="AT35" s="4"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="4" t="s">
         <v>209</v>
       </c>
@@ -10019,7 +10063,7 @@
       <c r="AS36" s="4"/>
       <c r="AT36" s="4"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="4" t="s">
         <v>209</v>
       </c>
@@ -10097,7 +10141,7 @@
       <c r="AS37" s="4"/>
       <c r="AT37" s="4"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="4" t="s">
         <v>217</v>
       </c>
@@ -10173,7 +10217,7 @@
       <c r="AS38" s="4"/>
       <c r="AT38" s="4"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46">
       <c r="A39" s="4" t="s">
         <v>217</v>
       </c>
@@ -10251,7 +10295,7 @@
       <c r="AS39" s="4"/>
       <c r="AT39" s="4"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10321,7 +10365,7 @@
       <c r="AS40" s="4"/>
       <c r="AT40" s="4"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10391,7 +10435,7 @@
       <c r="AS41" s="4"/>
       <c r="AT41" s="4"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10461,7 +10505,7 @@
       <c r="AS42" s="4"/>
       <c r="AT42" s="4"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10531,7 +10575,7 @@
       <c r="AS43" s="4"/>
       <c r="AT43" s="4"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10601,7 +10645,7 @@
       <c r="AS44" s="4"/>
       <c r="AT44" s="4"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10671,7 +10715,7 @@
       <c r="AS45" s="4"/>
       <c r="AT45" s="4"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10741,7 +10785,7 @@
       <c r="AS46" s="4"/>
       <c r="AT46" s="4"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10813,7 +10857,7 @@
       <c r="AS47" s="4"/>
       <c r="AT47" s="4"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10885,7 +10929,7 @@
       <c r="AS48" s="4"/>
       <c r="AT48" s="4"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10957,7 +11001,7 @@
       <c r="AS49" s="4"/>
       <c r="AT49" s="4"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -11029,7 +11073,7 @@
       <c r="AS50" s="4"/>
       <c r="AT50" s="4"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -11101,7 +11145,7 @@
       <c r="AS51" s="4"/>
       <c r="AT51" s="4"/>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -11173,7 +11217,7 @@
       <c r="AS52" s="4"/>
       <c r="AT52" s="4"/>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -11245,7 +11289,7 @@
       <c r="AS53" s="4"/>
       <c r="AT53" s="4"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -11321,7 +11365,7 @@
       </c>
       <c r="AT54" s="4"/>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -11397,7 +11441,7 @@
       </c>
       <c r="AT55" s="4"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -11473,7 +11517,7 @@
       </c>
       <c r="AT56" s="4"/>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -11549,7 +11593,7 @@
       </c>
       <c r="AT57" s="4"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -11625,7 +11669,7 @@
       </c>
       <c r="AT58" s="4"/>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -11701,7 +11745,7 @@
       </c>
       <c r="AT59" s="4"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -11777,7 +11821,7 @@
       </c>
       <c r="AT60" s="4"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -11841,7 +11885,7 @@
       <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46">
       <c r="A62" s="4" t="s">
         <v>324</v>
       </c>
@@ -11911,7 +11955,7 @@
       <c r="AS62" s="4"/>
       <c r="AT62" s="4"/>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46">
       <c r="A63" s="4" t="s">
         <v>324</v>
       </c>
@@ -11981,7 +12025,7 @@
       <c r="AS63" s="4"/>
       <c r="AT63" s="4"/>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46">
       <c r="A64" s="4" t="s">
         <v>324</v>
       </c>
@@ -12061,7 +12105,7 @@
       <c r="AS64" s="4"/>
       <c r="AT64" s="4"/>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46">
       <c r="A65" s="4" t="s">
         <v>337</v>
       </c>
@@ -12137,7 +12181,7 @@
       <c r="AS65" s="4"/>
       <c r="AT65" s="4"/>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46">
       <c r="A66" s="4" t="s">
         <v>337</v>
       </c>
@@ -12213,7 +12257,7 @@
       <c r="AS66" s="4"/>
       <c r="AT66" s="4"/>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46">
       <c r="A67" s="4" t="s">
         <v>348</v>
       </c>
@@ -12289,7 +12333,7 @@
       <c r="AS67" s="4"/>
       <c r="AT67" s="4"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46">
       <c r="A68" s="4" t="s">
         <v>348</v>
       </c>
@@ -12365,7 +12409,7 @@
       <c r="AS68" s="4"/>
       <c r="AT68" s="4"/>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46">
       <c r="A69" s="4" t="s">
         <v>359</v>
       </c>
@@ -12441,7 +12485,7 @@
       <c r="AS69" s="4"/>
       <c r="AT69" s="4"/>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46">
       <c r="A70" s="4" t="s">
         <v>359</v>
       </c>
@@ -12519,7 +12563,7 @@
       <c r="AS70" s="4"/>
       <c r="AT70" s="4"/>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46">
       <c r="A71" s="4" t="s">
         <v>369</v>
       </c>
@@ -12595,7 +12639,7 @@
       <c r="AS71" s="4"/>
       <c r="AT71" s="4"/>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46">
       <c r="A72" s="4" t="s">
         <v>369</v>
       </c>
@@ -12673,7 +12717,7 @@
       <c r="AS72" s="4"/>
       <c r="AT72" s="4"/>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -12743,7 +12787,7 @@
       <c r="AS73" s="4"/>
       <c r="AT73" s="4"/>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -12813,7 +12857,7 @@
       <c r="AS74" s="4"/>
       <c r="AT74" s="4"/>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -12885,7 +12929,7 @@
       <c r="AS75" s="4"/>
       <c r="AT75" s="4"/>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -12957,7 +13001,7 @@
       <c r="AS76" s="4"/>
       <c r="AT76" s="4"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -13033,7 +13077,7 @@
       </c>
       <c r="AT77" s="4"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -13109,7 +13153,7 @@
       </c>
       <c r="AT78" s="4"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -13173,7 +13217,7 @@
       <c r="AS79" s="4"/>
       <c r="AT79" s="4"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46">
       <c r="A80" s="4" t="s">
         <v>408</v>
       </c>
@@ -13249,7 +13293,7 @@
       <c r="AS80" s="4"/>
       <c r="AT80" s="4"/>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46">
       <c r="A81" s="4" t="s">
         <v>408</v>
       </c>
@@ -13325,7 +13369,7 @@
       <c r="AS81" s="4"/>
       <c r="AT81" s="4"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46">
       <c r="A82" s="4" t="s">
         <v>420</v>
       </c>
@@ -13401,7 +13445,7 @@
       <c r="AS82" s="4"/>
       <c r="AT82" s="4"/>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46">
       <c r="A83" s="4" t="s">
         <v>420</v>
       </c>
@@ -13479,7 +13523,7 @@
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -13549,7 +13593,7 @@
       <c r="AS84" s="4"/>
       <c r="AT84" s="4"/>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -13621,7 +13665,7 @@
       <c r="AS85" s="4"/>
       <c r="AT85" s="4"/>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -13697,7 +13741,7 @@
       </c>
       <c r="AT86" s="4"/>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -13761,7 +13805,7 @@
       <c r="AS87" s="4"/>
       <c r="AT87" s="4"/>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46">
       <c r="A88" s="4" t="s">
         <v>445</v>
       </c>
@@ -13837,7 +13881,7 @@
       <c r="AS88" s="4"/>
       <c r="AT88" s="4"/>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46">
       <c r="A89" s="4" t="s">
         <v>445</v>
       </c>
@@ -13913,7 +13957,7 @@
       <c r="AS89" s="4"/>
       <c r="AT89" s="4"/>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46">
       <c r="A90" s="4" t="s">
         <v>457</v>
       </c>
@@ -13989,7 +14033,7 @@
       <c r="AS90" s="4"/>
       <c r="AT90" s="4"/>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46">
       <c r="A91" s="4" t="s">
         <v>457</v>
       </c>
@@ -14067,7 +14111,7 @@
       <c r="AS91" s="4"/>
       <c r="AT91" s="4"/>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46">
       <c r="A92" s="4" t="s">
         <v>466</v>
       </c>
@@ -14145,7 +14189,7 @@
       <c r="AS92" s="4"/>
       <c r="AT92" s="4"/>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46">
       <c r="A93" s="4" t="s">
         <v>466</v>
       </c>
@@ -14227,7 +14271,7 @@
       </c>
       <c r="AT93" s="4"/>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -14297,7 +14341,7 @@
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -14369,7 +14413,7 @@
       <c r="AS95" s="4"/>
       <c r="AT95" s="4"/>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -14445,7 +14489,7 @@
       </c>
       <c r="AT96" s="4"/>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46">
       <c r="A97" s="4" t="s">
         <v>491</v>
       </c>
@@ -14515,7 +14559,7 @@
       <c r="AS97" s="4"/>
       <c r="AT97" s="4"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46">
       <c r="A98" s="4" t="s">
         <v>491</v>
       </c>
@@ -14585,7 +14629,7 @@
       <c r="AS98" s="4"/>
       <c r="AT98" s="4"/>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46">
       <c r="A99" s="4" t="s">
         <v>491</v>
       </c>
@@ -14655,7 +14699,7 @@
       <c r="AS99" s="4"/>
       <c r="AT99" s="4"/>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46">
       <c r="A100" s="4" t="s">
         <v>491</v>
       </c>
@@ -14739,7 +14783,7 @@
       <c r="AS100" s="4"/>
       <c r="AT100" s="4"/>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46">
       <c r="A101" s="4" t="s">
         <v>506</v>
       </c>
@@ -14815,7 +14859,7 @@
       <c r="AS101" s="4"/>
       <c r="AT101" s="4"/>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46">
       <c r="A102" s="4" t="s">
         <v>506</v>
       </c>
@@ -14891,7 +14935,7 @@
       <c r="AS102" s="4"/>
       <c r="AT102" s="4"/>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46">
       <c r="A103" s="4" t="s">
         <v>517</v>
       </c>
@@ -14967,7 +15011,7 @@
       <c r="AS103" s="4"/>
       <c r="AT103" s="4"/>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46">
       <c r="A104" s="4" t="s">
         <v>517</v>
       </c>
@@ -15043,7 +15087,7 @@
       <c r="AS104" s="4"/>
       <c r="AT104" s="4"/>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46">
       <c r="A105" s="4" t="s">
         <v>528</v>
       </c>
@@ -15119,7 +15163,7 @@
       <c r="AS105" s="4"/>
       <c r="AT105" s="4"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46">
       <c r="A106" s="4" t="s">
         <v>528</v>
       </c>
@@ -15195,7 +15239,7 @@
       <c r="AS106" s="4"/>
       <c r="AT106" s="4"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46">
       <c r="A107" s="4" t="s">
         <v>539</v>
       </c>
@@ -15271,7 +15315,7 @@
       <c r="AS107" s="4"/>
       <c r="AT107" s="4"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46">
       <c r="A108" s="4" t="s">
         <v>539</v>
       </c>
@@ -15349,7 +15393,7 @@
       <c r="AS108" s="4"/>
       <c r="AT108" s="4"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46">
       <c r="A109" s="4" t="s">
         <v>547</v>
       </c>
@@ -15425,7 +15469,7 @@
       <c r="AS109" s="4"/>
       <c r="AT109" s="4"/>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46">
       <c r="A110" s="4" t="s">
         <v>547</v>
       </c>
@@ -15503,7 +15547,7 @@
       <c r="AS110" s="4"/>
       <c r="AT110" s="4"/>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46">
       <c r="A111" s="4" t="s">
         <v>555</v>
       </c>
@@ -15579,7 +15623,7 @@
       <c r="AS111" s="4"/>
       <c r="AT111" s="4"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46">
       <c r="A112" s="4" t="s">
         <v>555</v>
       </c>
@@ -15657,7 +15701,7 @@
       <c r="AS112" s="4"/>
       <c r="AT112" s="4"/>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -15727,7 +15771,7 @@
       <c r="AS113" s="4"/>
       <c r="AT113" s="4"/>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -15797,7 +15841,7 @@
       <c r="AS114" s="4"/>
       <c r="AT114" s="4"/>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -15867,7 +15911,7 @@
       <c r="AS115" s="4"/>
       <c r="AT115" s="4"/>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -15939,7 +15983,7 @@
       <c r="AS116" s="4"/>
       <c r="AT116" s="4"/>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -16011,7 +16055,7 @@
       <c r="AS117" s="4"/>
       <c r="AT117" s="4"/>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -16083,7 +16127,7 @@
       <c r="AS118" s="4"/>
       <c r="AT118" s="4"/>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -16159,7 +16203,7 @@
       </c>
       <c r="AT119" s="4"/>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -16235,7 +16279,7 @@
       </c>
       <c r="AT120" s="4"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -16311,7 +16355,7 @@
       </c>
       <c r="AT121" s="4"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -16387,7 +16431,7 @@
       <c r="AS122" s="4"/>
       <c r="AT122" s="4"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -16459,7 +16503,7 @@
       </c>
       <c r="AT123" s="4"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -16533,7 +16577,7 @@
       </c>
       <c r="AT124" s="4"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -16603,7 +16647,7 @@
       </c>
       <c r="AT125" s="4"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46">
       <c r="A126" s="4" t="s">
         <v>633</v>
       </c>
@@ -16681,7 +16725,7 @@
       </c>
       <c r="AT126" s="4"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46">
       <c r="A127" s="4" t="s">
         <v>633</v>
       </c>
@@ -16763,7 +16807,7 @@
       </c>
       <c r="AT127" s="4"/>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -16839,7 +16883,7 @@
       </c>
       <c r="AT128" s="4"/>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46">
       <c r="A129" s="4" t="s">
         <v>651</v>
       </c>
@@ -16909,7 +16953,7 @@
       <c r="AS129" s="4"/>
       <c r="AT129" s="4"/>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46">
       <c r="A130" s="4" t="s">
         <v>651</v>
       </c>
@@ -16979,7 +17023,7 @@
       <c r="AS130" s="4"/>
       <c r="AT130" s="4"/>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46">
       <c r="A131" s="4" t="s">
         <v>651</v>
       </c>
@@ -17049,7 +17093,7 @@
       <c r="AS131" s="4"/>
       <c r="AT131" s="4"/>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46">
       <c r="A132" s="4" t="s">
         <v>651</v>
       </c>
@@ -17119,7 +17163,7 @@
       <c r="AS132" s="4"/>
       <c r="AT132" s="4"/>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46">
       <c r="A133" s="4" t="s">
         <v>651</v>
       </c>
@@ -17189,7 +17233,7 @@
       <c r="AS133" s="4"/>
       <c r="AT133" s="4"/>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46">
       <c r="A134" s="4" t="s">
         <v>651</v>
       </c>
@@ -17281,7 +17325,7 @@
       <c r="AS134" s="4"/>
       <c r="AT134" s="4"/>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -17345,7 +17389,7 @@
       <c r="AS135" s="4"/>
       <c r="AT135" s="4"/>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -17415,7 +17459,7 @@
       <c r="AS136" s="4"/>
       <c r="AT136" s="4"/>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -17479,7 +17523,7 @@
       <c r="AS137" s="4"/>
       <c r="AT137" s="4"/>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -17553,7 +17597,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -17625,7 +17669,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -17697,7 +17741,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -17773,7 +17817,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -17847,7 +17891,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -17921,7 +17965,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -17985,7 +18029,7 @@
       <c r="AS144" s="4"/>
       <c r="AT144" s="4"/>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -18057,7 +18101,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -18129,7 +18173,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46">
       <c r="A147" s="4" t="s">
         <v>738</v>
       </c>
@@ -18211,7 +18255,7 @@
       </c>
       <c r="AT147" s="4"/>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46">
       <c r="A148" s="4" t="s">
         <v>738</v>
       </c>
@@ -18293,7 +18337,7 @@
       </c>
       <c r="AT148" s="4"/>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46">
       <c r="A149" s="4" t="s">
         <v>738</v>
       </c>
@@ -18375,7 +18419,7 @@
       </c>
       <c r="AT149" s="4"/>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46">
       <c r="A150" s="4" t="s">
         <v>738</v>
       </c>
@@ -18457,7 +18501,7 @@
       </c>
       <c r="AT150" s="4"/>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46">
       <c r="A151" s="4" t="s">
         <v>738</v>
       </c>
@@ -18539,7 +18583,7 @@
       </c>
       <c r="AT151" s="4"/>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46">
       <c r="A152" s="4" t="s">
         <v>738</v>
       </c>
@@ -18621,7 +18665,7 @@
       </c>
       <c r="AT152" s="4"/>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46">
       <c r="A153" s="4" t="s">
         <v>738</v>
       </c>
@@ -18703,7 +18747,7 @@
       </c>
       <c r="AT153" s="4"/>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46">
       <c r="A154" s="4" t="s">
         <v>738</v>
       </c>
@@ -18785,7 +18829,7 @@
       </c>
       <c r="AT154" s="4"/>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46">
       <c r="A155" s="4" t="s">
         <v>738</v>
       </c>
@@ -18861,7 +18905,7 @@
       <c r="AS155" s="4"/>
       <c r="AT155" s="4"/>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -18925,7 +18969,7 @@
       <c r="AS156" s="4"/>
       <c r="AT156" s="4"/>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46">
       <c r="A157" s="4" t="s">
         <v>776</v>
       </c>
@@ -19001,7 +19045,7 @@
       <c r="AS157" s="4"/>
       <c r="AT157" s="4"/>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46">
       <c r="A158" s="4" t="s">
         <v>776</v>
       </c>
@@ -19077,7 +19121,7 @@
       <c r="AS158" s="4"/>
       <c r="AT158" s="4"/>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46">
       <c r="A159" s="4" t="s">
         <v>776</v>
       </c>
@@ -19153,7 +19197,7 @@
       <c r="AS159" s="4"/>
       <c r="AT159" s="4"/>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46">
       <c r="A160" s="4" t="s">
         <v>776</v>
       </c>
@@ -19229,7 +19273,7 @@
       <c r="AS160" s="4"/>
       <c r="AT160" s="4"/>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46">
       <c r="A161" s="4" t="s">
         <v>776</v>
       </c>
@@ -19305,7 +19349,7 @@
       <c r="AS161" s="4"/>
       <c r="AT161" s="4"/>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46">
       <c r="A162" s="4" t="s">
         <v>776</v>
       </c>
@@ -19381,7 +19425,7 @@
       <c r="AS162" s="4"/>
       <c r="AT162" s="4"/>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46">
       <c r="A163" s="4" t="s">
         <v>776</v>
       </c>
@@ -19457,7 +19501,7 @@
       <c r="AS163" s="4"/>
       <c r="AT163" s="4"/>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46">
       <c r="A164" s="4" t="s">
         <v>776</v>
       </c>
@@ -19533,7 +19577,7 @@
       <c r="AS164" s="4"/>
       <c r="AT164" s="4"/>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46">
       <c r="A165" s="4" t="s">
         <v>776</v>
       </c>
@@ -19609,7 +19653,7 @@
       <c r="AS165" s="4"/>
       <c r="AT165" s="4"/>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46">
       <c r="A166" s="4" t="s">
         <v>776</v>
       </c>
@@ -19685,7 +19729,7 @@
       <c r="AS166" s="4"/>
       <c r="AT166" s="4"/>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46">
       <c r="A167" s="4" t="s">
         <v>776</v>
       </c>
@@ -19761,7 +19805,7 @@
       <c r="AS167" s="4"/>
       <c r="AT167" s="4"/>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46">
       <c r="A168" s="4" t="s">
         <v>776</v>
       </c>
@@ -19837,7 +19881,7 @@
       <c r="AS168" s="4"/>
       <c r="AT168" s="4"/>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46">
       <c r="A169" s="4" t="s">
         <v>776</v>
       </c>
@@ -19913,7 +19957,7 @@
       <c r="AS169" s="4"/>
       <c r="AT169" s="4"/>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -19983,7 +20027,7 @@
       <c r="AS170" s="4"/>
       <c r="AT170" s="4"/>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -20053,7 +20097,7 @@
       <c r="AS171" s="4"/>
       <c r="AT171" s="4"/>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -20123,7 +20167,7 @@
       <c r="AS172" s="4"/>
       <c r="AT172" s="4"/>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -20193,7 +20237,7 @@
       <c r="AS173" s="4"/>
       <c r="AT173" s="4"/>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -20263,7 +20307,7 @@
       <c r="AS174" s="4"/>
       <c r="AT174" s="4"/>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -20333,7 +20377,7 @@
       <c r="AS175" s="4"/>
       <c r="AT175" s="4"/>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -20403,7 +20447,7 @@
       <c r="AS176" s="4"/>
       <c r="AT176" s="4"/>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -20473,7 +20517,7 @@
       <c r="AS177" s="4"/>
       <c r="AT177" s="4"/>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -20543,7 +20587,7 @@
       <c r="AS178" s="4"/>
       <c r="AT178" s="4"/>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -20613,7 +20657,7 @@
       <c r="AS179" s="4"/>
       <c r="AT179" s="4"/>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -20683,7 +20727,7 @@
       <c r="AS180" s="4"/>
       <c r="AT180" s="4"/>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -20753,7 +20797,7 @@
       <c r="AS181" s="4"/>
       <c r="AT181" s="4"/>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -20817,7 +20861,7 @@
       <c r="AS182" s="4"/>
       <c r="AT182" s="4"/>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -20885,7 +20929,7 @@
       <c r="AS183" s="4"/>
       <c r="AT183" s="4"/>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46">
       <c r="A184" s="4" t="s">
         <v>899</v>
       </c>
@@ -20955,7 +20999,7 @@
       <c r="AS184" s="4"/>
       <c r="AT184" s="4"/>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46">
       <c r="A185" s="4" t="s">
         <v>899</v>
       </c>
@@ -21025,7 +21069,7 @@
       <c r="AS185" s="4"/>
       <c r="AT185" s="4"/>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46">
       <c r="A186" s="4" t="s">
         <v>899</v>
       </c>
@@ -21095,7 +21139,7 @@
       <c r="AS186" s="4"/>
       <c r="AT186" s="4"/>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46">
       <c r="A187" s="4" t="s">
         <v>899</v>
       </c>
@@ -21165,7 +21209,7 @@
       <c r="AS187" s="4"/>
       <c r="AT187" s="4"/>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46">
       <c r="A188" s="4" t="s">
         <v>899</v>
       </c>
@@ -21235,7 +21279,7 @@
       <c r="AS188" s="4"/>
       <c r="AT188" s="4"/>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46">
       <c r="A189" s="4" t="s">
         <v>899</v>
       </c>
@@ -21305,7 +21349,7 @@
       <c r="AS189" s="4"/>
       <c r="AT189" s="4"/>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46">
       <c r="A190" s="4" t="s">
         <v>899</v>
       </c>
@@ -21375,7 +21419,7 @@
       <c r="AS190" s="4"/>
       <c r="AT190" s="4"/>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46">
       <c r="A191" s="4" t="s">
         <v>899</v>
       </c>
@@ -21445,7 +21489,7 @@
       <c r="AS191" s="4"/>
       <c r="AT191" s="4"/>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46">
       <c r="A192" s="4" t="s">
         <v>899</v>
       </c>
@@ -21519,7 +21563,7 @@
       <c r="AS192" s="4"/>
       <c r="AT192" s="4"/>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46">
       <c r="A193" s="4" t="s">
         <v>899</v>
       </c>
@@ -21591,7 +21635,7 @@
       <c r="AS193" s="4"/>
       <c r="AT193" s="4"/>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46">
       <c r="A194" s="4" t="s">
         <v>899</v>
       </c>
@@ -21665,7 +21709,7 @@
       <c r="AS194" s="4"/>
       <c r="AT194" s="4"/>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -21737,7 +21781,7 @@
       <c r="AS195" s="4"/>
       <c r="AT195" s="4"/>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -21809,7 +21853,7 @@
       <c r="AS196" s="4"/>
       <c r="AT196" s="4"/>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -21887,7 +21931,7 @@
       </c>
       <c r="AT197" s="4"/>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46">
       <c r="A198" s="4" t="s">
         <v>952</v>
       </c>
@@ -21963,7 +22007,7 @@
       <c r="AS198" s="4"/>
       <c r="AT198" s="4"/>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46">
       <c r="A199" s="4" t="s">
         <v>952</v>
       </c>
@@ -22039,7 +22083,7 @@
       <c r="AS199" s="4"/>
       <c r="AT199" s="4"/>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -22111,7 +22155,7 @@
       <c r="AS200" s="4"/>
       <c r="AT200" s="4"/>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -22183,7 +22227,7 @@
       <c r="AS201" s="4"/>
       <c r="AT201" s="4"/>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -22261,7 +22305,7 @@
       </c>
       <c r="AT202" s="4"/>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46">
       <c r="A203" s="4" t="s">
         <v>976</v>
       </c>
@@ -22337,7 +22381,7 @@
       <c r="AS203" s="4"/>
       <c r="AT203" s="4"/>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46">
       <c r="A204" s="4" t="s">
         <v>976</v>
       </c>
@@ -22413,7 +22457,7 @@
       <c r="AS204" s="4"/>
       <c r="AT204" s="4"/>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -22485,7 +22529,7 @@
       <c r="AS205" s="4"/>
       <c r="AT205" s="4"/>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -22557,7 +22601,7 @@
       <c r="AS206" s="4"/>
       <c r="AT206" s="4"/>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -22635,7 +22679,7 @@
       </c>
       <c r="AT207" s="4"/>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46">
       <c r="A208" s="4" t="s">
         <v>1001</v>
       </c>
@@ -22711,7 +22755,7 @@
       <c r="AS208" s="4"/>
       <c r="AT208" s="4"/>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46">
       <c r="A209" s="4" t="s">
         <v>1001</v>
       </c>
@@ -22787,7 +22831,7 @@
       <c r="AS209" s="4"/>
       <c r="AT209" s="4"/>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -22859,7 +22903,7 @@
       <c r="AS210" s="4"/>
       <c r="AT210" s="4"/>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -22931,7 +22975,7 @@
       <c r="AS211" s="4"/>
       <c r="AT211" s="4"/>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -23009,7 +23053,7 @@
       </c>
       <c r="AT212" s="4"/>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46">
       <c r="A213" s="4" t="s">
         <v>1026</v>
       </c>
@@ -23085,7 +23129,7 @@
       <c r="AS213" s="4"/>
       <c r="AT213" s="4"/>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46">
       <c r="A214" s="4" t="s">
         <v>1026</v>
       </c>
@@ -23161,7 +23205,7 @@
       <c r="AS214" s="4"/>
       <c r="AT214" s="4"/>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -23233,7 +23277,7 @@
       <c r="AS215" s="4"/>
       <c r="AT215" s="4"/>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -23305,7 +23349,7 @@
       <c r="AS216" s="4"/>
       <c r="AT216" s="4"/>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -23383,7 +23427,7 @@
       </c>
       <c r="AT217" s="4"/>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46">
       <c r="A218" s="4" t="s">
         <v>1051</v>
       </c>
@@ -23459,7 +23503,7 @@
       <c r="AS218" s="4"/>
       <c r="AT218" s="4"/>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46">
       <c r="A219" s="4" t="s">
         <v>1051</v>
       </c>
@@ -23535,7 +23579,7 @@
       <c r="AS219" s="4"/>
       <c r="AT219" s="4"/>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -23607,7 +23651,7 @@
       <c r="AS220" s="4"/>
       <c r="AT220" s="4"/>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -23679,7 +23723,7 @@
       <c r="AS221" s="4"/>
       <c r="AT221" s="4"/>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -23757,7 +23801,7 @@
       </c>
       <c r="AT222" s="4"/>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46">
       <c r="A223" s="4" t="s">
         <v>1076</v>
       </c>
@@ -23833,7 +23877,7 @@
       <c r="AS223" s="4"/>
       <c r="AT223" s="4"/>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46">
       <c r="A224" s="4" t="s">
         <v>1076</v>
       </c>
@@ -23909,7 +23953,7 @@
       <c r="AS224" s="4"/>
       <c r="AT224" s="4"/>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -23981,7 +24025,7 @@
       <c r="AS225" s="4"/>
       <c r="AT225" s="4"/>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -24053,7 +24097,7 @@
       <c r="AS226" s="4"/>
       <c r="AT226" s="4"/>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -24131,7 +24175,7 @@
       </c>
       <c r="AT227" s="4"/>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46">
       <c r="A228" s="4" t="s">
         <v>1101</v>
       </c>
@@ -24207,7 +24251,7 @@
       <c r="AS228" s="4"/>
       <c r="AT228" s="4"/>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46">
       <c r="A229" s="4" t="s">
         <v>1101</v>
       </c>
@@ -24283,7 +24327,7 @@
       <c r="AS229" s="4"/>
       <c r="AT229" s="4"/>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -24355,7 +24399,7 @@
       <c r="AS230" s="4"/>
       <c r="AT230" s="4"/>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -24427,7 +24471,7 @@
       <c r="AS231" s="4"/>
       <c r="AT231" s="4"/>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -24505,7 +24549,7 @@
       </c>
       <c r="AT232" s="4"/>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46">
       <c r="A233" s="4" t="s">
         <v>1126</v>
       </c>
@@ -24581,7 +24625,7 @@
       <c r="AS233" s="4"/>
       <c r="AT233" s="4"/>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46">
       <c r="A234" s="4" t="s">
         <v>1126</v>
       </c>
@@ -24657,7 +24701,7 @@
       <c r="AS234" s="4"/>
       <c r="AT234" s="4"/>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -24729,7 +24773,7 @@
       <c r="AS235" s="4"/>
       <c r="AT235" s="4"/>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -24801,7 +24845,7 @@
       <c r="AS236" s="4"/>
       <c r="AT236" s="4"/>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -24879,7 +24923,7 @@
       </c>
       <c r="AT237" s="4"/>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46">
       <c r="A238" s="4" t="s">
         <v>1151</v>
       </c>
@@ -24955,7 +24999,7 @@
       <c r="AS238" s="4"/>
       <c r="AT238" s="4"/>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46">
       <c r="A239" s="4" t="s">
         <v>1151</v>
       </c>
@@ -25031,7 +25075,7 @@
       <c r="AS239" s="4"/>
       <c r="AT239" s="4"/>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -25095,7 +25139,7 @@
       <c r="AS240" s="4"/>
       <c r="AT240" s="4"/>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46">
       <c r="A241" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25171,7 +25215,7 @@
       <c r="AS241" s="4"/>
       <c r="AT241" s="4"/>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46">
       <c r="A242" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25247,7 +25291,7 @@
       <c r="AS242" s="4"/>
       <c r="AT242" s="4"/>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46">
       <c r="A243" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25323,7 +25367,7 @@
       <c r="AS243" s="4"/>
       <c r="AT243" s="4"/>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46">
       <c r="A244" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25399,7 +25443,7 @@
       <c r="AS244" s="4"/>
       <c r="AT244" s="4"/>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46">
       <c r="A245" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25475,7 +25519,7 @@
       <c r="AS245" s="4"/>
       <c r="AT245" s="4"/>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46">
       <c r="A246" s="4" t="s">
         <v>1165</v>
       </c>
@@ -25551,7 +25595,7 @@
       <c r="AS246" s="4"/>
       <c r="AT246" s="4"/>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -25623,7 +25667,7 @@
       <c r="AS247" s="4"/>
       <c r="AT247" s="4"/>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -25695,7 +25739,7 @@
       <c r="AS248" s="4"/>
       <c r="AT248" s="4"/>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -25773,7 +25817,7 @@
       </c>
       <c r="AT249" s="4"/>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:46">
       <c r="A250" s="4" t="s">
         <v>1202</v>
       </c>
@@ -25849,7 +25893,7 @@
       <c r="AS250" s="4"/>
       <c r="AT250" s="4"/>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:46">
       <c r="A251" s="4" t="s">
         <v>1202</v>
       </c>
@@ -25925,7 +25969,7 @@
       <c r="AS251" s="4"/>
       <c r="AT251" s="4"/>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:46">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -25997,7 +26041,7 @@
       <c r="AS252" s="4"/>
       <c r="AT252" s="4"/>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:46">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -26069,7 +26113,7 @@
       <c r="AS253" s="4"/>
       <c r="AT253" s="4"/>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:46">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -26147,7 +26191,7 @@
       </c>
       <c r="AT254" s="4"/>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:46">
       <c r="A255" s="4" t="s">
         <v>1227</v>
       </c>
@@ -26223,7 +26267,7 @@
       <c r="AS255" s="4"/>
       <c r="AT255" s="4"/>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:46">
       <c r="A256" s="4" t="s">
         <v>1227</v>
       </c>
@@ -26299,7 +26343,7 @@
       <c r="AS256" s="4"/>
       <c r="AT256" s="4"/>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -26371,7 +26415,7 @@
       <c r="AS257" s="4"/>
       <c r="AT257" s="4"/>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -26443,7 +26487,7 @@
       <c r="AS258" s="4"/>
       <c r="AT258" s="4"/>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -26521,7 +26565,7 @@
       </c>
       <c r="AT259" s="4"/>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46">
       <c r="A260" s="4" t="s">
         <v>1252</v>
       </c>
@@ -26597,7 +26641,7 @@
       <c r="AS260" s="4"/>
       <c r="AT260" s="4"/>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46">
       <c r="A261" s="4" t="s">
         <v>1252</v>
       </c>
@@ -26673,7 +26717,7 @@
       <c r="AS261" s="4"/>
       <c r="AT261" s="4"/>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -26745,7 +26789,7 @@
       <c r="AS262" s="4"/>
       <c r="AT262" s="4"/>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -26817,7 +26861,7 @@
       <c r="AS263" s="4"/>
       <c r="AT263" s="4"/>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -26895,7 +26939,7 @@
       </c>
       <c r="AT264" s="4"/>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46">
       <c r="A265" s="4" t="s">
         <v>1277</v>
       </c>
@@ -26971,7 +27015,7 @@
       <c r="AS265" s="4"/>
       <c r="AT265" s="4"/>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46">
       <c r="A266" s="4" t="s">
         <v>1277</v>
       </c>
@@ -27047,7 +27091,7 @@
       <c r="AS266" s="4"/>
       <c r="AT266" s="4"/>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -27119,7 +27163,7 @@
       <c r="AS267" s="4"/>
       <c r="AT267" s="4"/>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -27191,7 +27235,7 @@
       <c r="AS268" s="4"/>
       <c r="AT268" s="4"/>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -27269,7 +27313,7 @@
       </c>
       <c r="AT269" s="4"/>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46">
       <c r="A270" s="4" t="s">
         <v>1302</v>
       </c>
@@ -27345,7 +27389,7 @@
       <c r="AS270" s="4"/>
       <c r="AT270" s="4"/>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46">
       <c r="A271" s="4" t="s">
         <v>1302</v>
       </c>
@@ -27421,7 +27465,7 @@
       <c r="AS271" s="4"/>
       <c r="AT271" s="4"/>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46">
       <c r="A272" s="4" t="s">
         <v>1312</v>
       </c>
@@ -27491,7 +27535,7 @@
       <c r="AS272" s="4"/>
       <c r="AT272" s="4"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:46">
       <c r="A273" s="4" t="s">
         <v>1312</v>
       </c>
@@ -27561,7 +27605,7 @@
       <c r="AS273" s="4"/>
       <c r="AT273" s="4"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:46">
       <c r="A274" s="4" t="s">
         <v>1312</v>
       </c>
@@ -27637,7 +27681,7 @@
       <c r="AS274" s="4"/>
       <c r="AT274" s="4"/>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:46">
       <c r="A275" s="4" t="s">
         <v>1312</v>
       </c>
@@ -27717,7 +27761,7 @@
       <c r="AS275" s="4"/>
       <c r="AT275" s="4"/>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:46">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -27789,7 +27833,7 @@
       <c r="AS276" s="4"/>
       <c r="AT276" s="4"/>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:46">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -27861,7 +27905,7 @@
       <c r="AS277" s="4"/>
       <c r="AT277" s="4"/>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:46">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -27939,7 +27983,7 @@
       </c>
       <c r="AT278" s="4"/>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:46">
       <c r="A279" s="4" t="s">
         <v>1343</v>
       </c>
@@ -28015,7 +28059,7 @@
       <c r="AS279" s="4"/>
       <c r="AT279" s="4"/>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:46">
       <c r="A280" s="4" t="s">
         <v>1343</v>
       </c>
@@ -28091,7 +28135,7 @@
       <c r="AS280" s="4"/>
       <c r="AT280" s="4"/>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:46">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -28163,7 +28207,7 @@
       <c r="AS281" s="4"/>
       <c r="AT281" s="4"/>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:46">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -28235,7 +28279,7 @@
       <c r="AS282" s="4"/>
       <c r="AT282" s="4"/>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:46">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -28313,7 +28357,7 @@
       </c>
       <c r="AT283" s="4"/>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:46">
       <c r="A284" s="4" t="s">
         <v>1368</v>
       </c>
@@ -28389,7 +28433,7 @@
       <c r="AS284" s="4"/>
       <c r="AT284" s="4"/>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:46">
       <c r="A285" s="4" t="s">
         <v>1368</v>
       </c>
@@ -28465,7 +28509,7 @@
       <c r="AS285" s="4"/>
       <c r="AT285" s="4"/>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:46">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -28535,7 +28579,7 @@
       <c r="AS286" s="4"/>
       <c r="AT286" s="4"/>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:46">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -28605,7 +28649,7 @@
       <c r="AS287" s="4"/>
       <c r="AT287" s="4"/>
     </row>
-    <row r="288" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:46">
       <c r="A288" s="4" t="s">
         <v>1387</v>
       </c>
@@ -28675,7 +28719,7 @@
       <c r="AS288" s="4"/>
       <c r="AT288" s="4"/>
     </row>
-    <row r="289" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:46">
       <c r="A289" s="4" t="s">
         <v>1387</v>
       </c>
@@ -28745,7 +28789,7 @@
       <c r="AS289" s="4"/>
       <c r="AT289" s="4"/>
     </row>
-    <row r="290" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:46">
       <c r="A290" s="4" t="s">
         <v>1387</v>
       </c>
@@ -28815,7 +28859,7 @@
       <c r="AS290" s="4"/>
       <c r="AT290" s="4"/>
     </row>
-    <row r="291" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:46">
       <c r="A291" s="4" t="s">
         <v>1387</v>
       </c>
@@ -28891,7 +28935,7 @@
       <c r="AS291" s="4"/>
       <c r="AT291" s="4"/>
     </row>
-    <row r="292" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:46">
       <c r="A292" s="4" t="s">
         <v>1387</v>
       </c>
@@ -28975,7 +29019,7 @@
       <c r="AS292" s="4"/>
       <c r="AT292" s="4"/>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:46">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -29047,7 +29091,7 @@
       <c r="AS293" s="4"/>
       <c r="AT293" s="4"/>
     </row>
-    <row r="294" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:46">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -29119,7 +29163,7 @@
       <c r="AS294" s="4"/>
       <c r="AT294" s="4"/>
     </row>
-    <row r="295" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:46">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -29197,7 +29241,7 @@
       </c>
       <c r="AT295" s="4"/>
     </row>
-    <row r="296" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:46">
       <c r="A296" s="4" t="s">
         <v>1420</v>
       </c>
@@ -29273,7 +29317,7 @@
       <c r="AS296" s="4"/>
       <c r="AT296" s="4"/>
     </row>
-    <row r="297" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:46">
       <c r="A297" s="4" t="s">
         <v>1420</v>
       </c>
@@ -29349,7 +29393,7 @@
       <c r="AS297" s="4"/>
       <c r="AT297" s="4"/>
     </row>
-    <row r="298" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:46">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
@@ -29421,7 +29465,7 @@
       <c r="AS298" s="4"/>
       <c r="AT298" s="4"/>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:46">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
@@ -29493,7 +29537,7 @@
       <c r="AS299" s="4"/>
       <c r="AT299" s="4"/>
     </row>
-    <row r="300" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:46">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
@@ -29571,7 +29615,7 @@
       </c>
       <c r="AT300" s="4"/>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:46">
       <c r="A301" s="4" t="s">
         <v>1445</v>
       </c>
@@ -29647,7 +29691,7 @@
       <c r="AS301" s="4"/>
       <c r="AT301" s="4"/>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:46">
       <c r="A302" s="4" t="s">
         <v>1445</v>
       </c>
@@ -29723,7 +29767,7 @@
       <c r="AS302" s="4"/>
       <c r="AT302" s="4"/>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:46">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
@@ -29795,7 +29839,7 @@
       <c r="AS303" s="4"/>
       <c r="AT303" s="4"/>
     </row>
-    <row r="304" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:46">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
@@ -29867,7 +29911,7 @@
       <c r="AS304" s="4"/>
       <c r="AT304" s="4"/>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:46">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
@@ -29945,7 +29989,7 @@
       </c>
       <c r="AT305" s="4"/>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:46">
       <c r="A306" s="4" t="s">
         <v>1470</v>
       </c>
@@ -30021,7 +30065,7 @@
       <c r="AS306" s="4"/>
       <c r="AT306" s="4"/>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:46">
       <c r="A307" s="4" t="s">
         <v>1470</v>
       </c>
@@ -30097,7 +30141,7 @@
       <c r="AS307" s="4"/>
       <c r="AT307" s="4"/>
     </row>
-    <row r="308" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:46">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
@@ -30167,7 +30211,7 @@
       <c r="AS308" s="4"/>
       <c r="AT308" s="4"/>
     </row>
-    <row r="309" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:46">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
@@ -30237,7 +30281,7 @@
       <c r="AS309" s="4"/>
       <c r="AT309" s="4"/>
     </row>
-    <row r="310" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:46">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="4"/>
@@ -30301,7 +30345,7 @@
       <c r="AS310" s="4"/>
       <c r="AT310" s="4"/>
     </row>
-    <row r="311" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:46">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="4"/>
@@ -30365,7 +30409,7 @@
       <c r="AS311" s="4"/>
       <c r="AT311" s="4"/>
     </row>
-    <row r="312" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:46">
       <c r="A312" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30441,7 +30485,7 @@
       <c r="AS312" s="4"/>
       <c r="AT312" s="4"/>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:46">
       <c r="A313" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30517,7 +30561,7 @@
       <c r="AS313" s="4"/>
       <c r="AT313" s="4"/>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:46">
       <c r="A314" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30593,7 +30637,7 @@
       <c r="AS314" s="4"/>
       <c r="AT314" s="4"/>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:46">
       <c r="A315" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30669,7 +30713,7 @@
       <c r="AS315" s="4"/>
       <c r="AT315" s="4"/>
     </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:46">
       <c r="A316" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30745,7 +30789,7 @@
       <c r="AS316" s="4"/>
       <c r="AT316" s="4"/>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:46">
       <c r="A317" s="4" t="s">
         <v>1496</v>
       </c>
@@ -30821,7 +30865,7 @@
       <c r="AS317" s="4"/>
       <c r="AT317" s="4"/>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:46">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="4"/>
@@ -30891,7 +30935,7 @@
       <c r="AS318" s="4"/>
       <c r="AT318" s="4"/>
     </row>
-    <row r="319" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:46">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="4"/>
@@ -30961,7 +31005,7 @@
       <c r="AS319" s="4"/>
       <c r="AT319" s="4"/>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:46">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="4"/>
@@ -31025,7 +31069,7 @@
       <c r="AS320" s="4"/>
       <c r="AT320" s="4"/>
     </row>
-    <row r="321" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:46">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="4"/>
@@ -31095,7 +31139,7 @@
       <c r="AS321" s="4"/>
       <c r="AT321" s="4"/>
     </row>
-    <row r="322" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:46">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="4"/>
@@ -31165,7 +31209,7 @@
       <c r="AS322" s="4"/>
       <c r="AT322" s="4"/>
     </row>
-    <row r="323" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:46">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="4"/>
@@ -31235,7 +31279,7 @@
       <c r="AS323" s="4"/>
       <c r="AT323" s="4"/>
     </row>
-    <row r="324" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:46">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="4"/>
@@ -31311,7 +31355,7 @@
       </c>
       <c r="AT324" s="4"/>
     </row>
-    <row r="325" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:46">
       <c r="A325" s="4" t="s">
         <v>1547</v>
       </c>
@@ -31387,7 +31431,7 @@
       <c r="AS325" s="4"/>
       <c r="AT325" s="4"/>
     </row>
-    <row r="326" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:46">
       <c r="A326" s="4" t="s">
         <v>1547</v>
       </c>
@@ -31463,7 +31507,7 @@
       <c r="AS326" s="4"/>
       <c r="AT326" s="4"/>
     </row>
-    <row r="327" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:46">
       <c r="A327" s="4" t="s">
         <v>1558</v>
       </c>
@@ -31537,7 +31581,7 @@
       <c r="AS327" s="4"/>
       <c r="AT327" s="4"/>
     </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:46">
       <c r="A328" s="4" t="s">
         <v>1558</v>
       </c>
@@ -31611,7 +31655,7 @@
       <c r="AS328" s="4"/>
       <c r="AT328" s="4"/>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:46">
       <c r="A329" s="4" t="s">
         <v>1558</v>
       </c>
@@ -31685,7 +31729,7 @@
       <c r="AS329" s="4"/>
       <c r="AT329" s="4"/>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:46">
       <c r="A330" s="4" t="s">
         <v>1558</v>
       </c>
@@ -31759,7 +31803,7 @@
       <c r="AS330" s="4"/>
       <c r="AT330" s="4"/>
     </row>
-    <row r="331" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:46">
       <c r="A331" s="4" t="s">
         <v>1578</v>
       </c>
@@ -31833,7 +31877,7 @@
       <c r="AS331" s="4"/>
       <c r="AT331" s="4"/>
     </row>
-    <row r="332" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:46">
       <c r="A332" s="4" t="s">
         <v>1578</v>
       </c>
@@ -31907,7 +31951,7 @@
       <c r="AS332" s="4"/>
       <c r="AT332" s="4"/>
     </row>
-    <row r="333" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:46">
       <c r="A333" s="4" t="s">
         <v>1578</v>
       </c>
@@ -31981,7 +32025,7 @@
       <c r="AS333" s="4"/>
       <c r="AT333" s="4"/>
     </row>
-    <row r="334" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:46">
       <c r="A334" s="4" t="s">
         <v>1578</v>
       </c>
@@ -32055,7 +32099,7 @@
       <c r="AS334" s="4"/>
       <c r="AT334" s="4"/>
     </row>
-    <row r="335" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:46">
       <c r="A335" s="4" t="s">
         <v>1596</v>
       </c>
@@ -32129,7 +32173,7 @@
       <c r="AS335" s="4"/>
       <c r="AT335" s="4"/>
     </row>
-    <row r="336" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:46">
       <c r="A336" s="4" t="s">
         <v>1596</v>
       </c>
@@ -32203,7 +32247,7 @@
       <c r="AS336" s="4"/>
       <c r="AT336" s="4"/>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:46">
       <c r="A337" s="4" t="s">
         <v>1596</v>
       </c>
@@ -32277,7 +32321,7 @@
       <c r="AS337" s="4"/>
       <c r="AT337" s="4"/>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:46">
       <c r="A338" s="4" t="s">
         <v>1596</v>
       </c>
@@ -32351,7 +32395,7 @@
       <c r="AS338" s="4"/>
       <c r="AT338" s="4"/>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:46">
       <c r="A339" s="4" t="s">
         <v>1596</v>
       </c>
@@ -32425,7 +32469,7 @@
       <c r="AS339" s="4"/>
       <c r="AT339" s="4"/>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:46">
       <c r="A340" s="4" t="s">
         <v>1619</v>
       </c>
@@ -32505,7 +32549,7 @@
       </c>
       <c r="AT340" s="4"/>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:46">
       <c r="A341" s="4" t="s">
         <v>1619</v>
       </c>
@@ -32585,7 +32629,7 @@
       </c>
       <c r="AT341" s="4"/>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:46">
       <c r="A342" s="4" t="s">
         <v>1619</v>
       </c>
@@ -32665,7 +32709,7 @@
       </c>
       <c r="AT342" s="4"/>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:46">
       <c r="A343" s="4" t="s">
         <v>1619</v>
       </c>
@@ -32745,7 +32789,7 @@
       </c>
       <c r="AT343" s="4"/>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:46">
       <c r="A344" s="4" t="s">
         <v>1619</v>
       </c>
@@ -32825,7 +32869,7 @@
       </c>
       <c r="AT344" s="4"/>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:46">
       <c r="A345" s="4" t="s">
         <v>1653</v>
       </c>
@@ -32895,7 +32939,7 @@
       <c r="AS345" s="4"/>
       <c r="AT345" s="4"/>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:46">
       <c r="A346" s="4" t="s">
         <v>1653</v>
       </c>
@@ -32965,7 +33009,7 @@
       <c r="AS346" s="4"/>
       <c r="AT346" s="4"/>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:46">
       <c r="A347" s="4" t="s">
         <v>1653</v>
       </c>
@@ -33035,7 +33079,7 @@
       <c r="AS347" s="4"/>
       <c r="AT347" s="4"/>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:46">
       <c r="A348" s="4" t="s">
         <v>1653</v>
       </c>
@@ -33119,7 +33163,7 @@
       <c r="AS348" s="4"/>
       <c r="AT348" s="4"/>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:46">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="4"/>
@@ -33191,7 +33235,7 @@
       <c r="AS349" s="4"/>
       <c r="AT349" s="4"/>
     </row>
-    <row r="350" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:46">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="4"/>
@@ -33263,7 +33307,7 @@
       <c r="AS350" s="4"/>
       <c r="AT350" s="4"/>
     </row>
-    <row r="351" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:46">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="4"/>
@@ -33335,7 +33379,7 @@
       <c r="AS351" s="4"/>
       <c r="AT351" s="4"/>
     </row>
-    <row r="352" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:46">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="4"/>
@@ -33407,7 +33451,7 @@
       <c r="AS352" s="4"/>
       <c r="AT352" s="4"/>
     </row>
-    <row r="353" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:46">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="4"/>
@@ -33479,7 +33523,7 @@
       <c r="AS353" s="4"/>
       <c r="AT353" s="4"/>
     </row>
-    <row r="354" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:46">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="4"/>
@@ -33551,7 +33595,7 @@
       <c r="AS354" s="4"/>
       <c r="AT354" s="4"/>
     </row>
-    <row r="355" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:46">
       <c r="A355" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33621,7 +33665,7 @@
       <c r="AS355" s="4"/>
       <c r="AT355" s="4"/>
     </row>
-    <row r="356" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:46">
       <c r="A356" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33691,7 +33735,7 @@
       <c r="AS356" s="4"/>
       <c r="AT356" s="4"/>
     </row>
-    <row r="357" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:46">
       <c r="A357" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33761,7 +33805,7 @@
       <c r="AS357" s="4"/>
       <c r="AT357" s="4"/>
     </row>
-    <row r="358" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:46">
       <c r="A358" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33831,7 +33875,7 @@
       <c r="AS358" s="4"/>
       <c r="AT358" s="4"/>
     </row>
-    <row r="359" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:46">
       <c r="A359" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33901,7 +33945,7 @@
       <c r="AS359" s="4"/>
       <c r="AT359" s="4"/>
     </row>
-    <row r="360" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:46">
       <c r="A360" s="4" t="s">
         <v>1699</v>
       </c>
@@ -33971,7 +34015,7 @@
       <c r="AS360" s="4"/>
       <c r="AT360" s="4"/>
     </row>
-    <row r="361" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:46">
       <c r="A361" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34041,7 +34085,7 @@
       <c r="AS361" s="4"/>
       <c r="AT361" s="4"/>
     </row>
-    <row r="362" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:46">
       <c r="A362" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34111,7 +34155,7 @@
       <c r="AS362" s="4"/>
       <c r="AT362" s="4"/>
     </row>
-    <row r="363" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:46">
       <c r="A363" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34181,7 +34225,7 @@
       <c r="AS363" s="4"/>
       <c r="AT363" s="4"/>
     </row>
-    <row r="364" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:46">
       <c r="A364" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34251,7 +34295,7 @@
       <c r="AS364" s="4"/>
       <c r="AT364" s="4"/>
     </row>
-    <row r="365" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:46">
       <c r="A365" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34321,7 +34365,7 @@
       <c r="AS365" s="4"/>
       <c r="AT365" s="4"/>
     </row>
-    <row r="366" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:46">
       <c r="A366" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34391,7 +34435,7 @@
       <c r="AS366" s="4"/>
       <c r="AT366" s="4"/>
     </row>
-    <row r="367" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:46">
       <c r="A367" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34461,7 +34505,7 @@
       <c r="AS367" s="4"/>
       <c r="AT367" s="4"/>
     </row>
-    <row r="368" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:46">
       <c r="A368" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34531,7 +34575,7 @@
       <c r="AS368" s="4"/>
       <c r="AT368" s="4"/>
     </row>
-    <row r="369" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:46">
       <c r="A369" s="4" t="s">
         <v>1699</v>
       </c>
@@ -34601,7 +34645,7 @@
       <c r="AS369" s="4"/>
       <c r="AT369" s="4"/>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:46">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="4"/>
@@ -34673,7 +34717,7 @@
       <c r="AS370" s="4"/>
       <c r="AT370" s="4"/>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:46">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="4"/>
@@ -34745,7 +34789,7 @@
       <c r="AS371" s="4"/>
       <c r="AT371" s="4"/>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:46">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="4"/>
@@ -34817,7 +34861,7 @@
       <c r="AS372" s="4"/>
       <c r="AT372" s="4"/>
     </row>
-    <row r="373" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:46">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="4"/>
@@ -34889,7 +34933,7 @@
       <c r="AS373" s="4"/>
       <c r="AT373" s="4"/>
     </row>
-    <row r="374" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:46">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="4"/>
@@ -34961,7 +35005,7 @@
       <c r="AS374" s="4"/>
       <c r="AT374" s="4"/>
     </row>
-    <row r="375" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:46">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="4"/>
@@ -35033,7 +35077,7 @@
       <c r="AS375" s="4"/>
       <c r="AT375" s="4"/>
     </row>
-    <row r="376" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:46">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="4"/>
@@ -35105,7 +35149,7 @@
       <c r="AS376" s="4"/>
       <c r="AT376" s="4"/>
     </row>
-    <row r="377" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:46">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="4"/>
@@ -35177,7 +35221,7 @@
       <c r="AS377" s="4"/>
       <c r="AT377" s="4"/>
     </row>
-    <row r="378" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:46">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="4"/>
@@ -35249,7 +35293,7 @@
       <c r="AS378" s="4"/>
       <c r="AT378" s="4"/>
     </row>
-    <row r="379" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:46">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="4"/>
@@ -35321,7 +35365,7 @@
       <c r="AS379" s="4"/>
       <c r="AT379" s="4"/>
     </row>
-    <row r="380" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:46">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="4"/>
@@ -35393,7 +35437,7 @@
       <c r="AS380" s="4"/>
       <c r="AT380" s="4"/>
     </row>
-    <row r="381" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:46">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="4"/>
@@ -35465,7 +35509,7 @@
       <c r="AS381" s="4"/>
       <c r="AT381" s="4"/>
     </row>
-    <row r="382" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:46">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="4"/>
@@ -35537,7 +35581,7 @@
       <c r="AS382" s="4"/>
       <c r="AT382" s="4"/>
     </row>
-    <row r="383" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:46">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="4"/>
@@ -35609,7 +35653,7 @@
       <c r="AS383" s="4"/>
       <c r="AT383" s="4"/>
     </row>
-    <row r="384" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:46">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="4"/>
@@ -35681,7 +35725,7 @@
       <c r="AS384" s="4"/>
       <c r="AT384" s="4"/>
     </row>
-    <row r="385" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:46">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="4"/>
@@ -35753,7 +35797,7 @@
       <c r="AS385" s="4"/>
       <c r="AT385" s="4"/>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:46">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="4"/>
@@ -35825,7 +35869,7 @@
       <c r="AS386" s="4"/>
       <c r="AT386" s="4"/>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:46">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="4"/>
@@ -35897,7 +35941,7 @@
       <c r="AS387" s="4"/>
       <c r="AT387" s="4"/>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:46">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="4"/>
@@ -35969,7 +36013,7 @@
       <c r="AS388" s="4"/>
       <c r="AT388" s="4"/>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:46">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="4"/>
@@ -36041,7 +36085,7 @@
       <c r="AS389" s="4"/>
       <c r="AT389" s="4"/>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:46">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="4"/>
@@ -36113,7 +36157,7 @@
       <c r="AS390" s="4"/>
       <c r="AT390" s="4"/>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:46">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="4"/>
@@ -36185,7 +36229,7 @@
       <c r="AS391" s="4"/>
       <c r="AT391" s="4"/>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:46">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="4"/>
@@ -36257,7 +36301,7 @@
       <c r="AS392" s="4"/>
       <c r="AT392" s="4"/>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:46">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="4"/>
@@ -36329,7 +36373,7 @@
       <c r="AS393" s="4"/>
       <c r="AT393" s="4"/>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:46">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="4"/>
@@ -36401,7 +36445,7 @@
       <c r="AS394" s="4"/>
       <c r="AT394" s="4"/>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:46">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="4"/>
@@ -36473,7 +36517,7 @@
       <c r="AS395" s="4"/>
       <c r="AT395" s="4"/>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:46">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="4"/>
@@ -36545,7 +36589,7 @@
       <c r="AS396" s="4"/>
       <c r="AT396" s="4"/>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:46">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="4"/>
@@ -36617,7 +36661,7 @@
       <c r="AS397" s="4"/>
       <c r="AT397" s="4"/>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:46">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="4"/>
@@ -36689,7 +36733,7 @@
       <c r="AS398" s="4"/>
       <c r="AT398" s="4"/>
     </row>
-    <row r="399" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:46">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="4"/>
@@ -36761,7 +36805,7 @@
       <c r="AS399" s="4"/>
       <c r="AT399" s="4"/>
     </row>
-    <row r="400" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:46">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="4"/>
@@ -36825,7 +36869,7 @@
       <c r="AS400" s="4"/>
       <c r="AT400" s="4"/>
     </row>
-    <row r="401" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:46">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="4"/>
@@ -36895,7 +36939,7 @@
       <c r="AS401" s="4"/>
       <c r="AT401" s="4"/>
     </row>
-    <row r="402" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:46">
       <c r="A402" s="4" t="s">
         <v>1906</v>
       </c>
@@ -36963,7 +37007,7 @@
       <c r="AS402" s="4"/>
       <c r="AT402" s="4"/>
     </row>
-    <row r="403" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:46">
       <c r="A403" s="4" t="s">
         <v>1906</v>
       </c>
@@ -37031,7 +37075,7 @@
       <c r="AS403" s="4"/>
       <c r="AT403" s="4"/>
     </row>
-    <row r="404" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:46">
       <c r="A404" s="4" t="s">
         <v>1916</v>
       </c>
@@ -37099,7 +37143,7 @@
       <c r="AS404" s="4"/>
       <c r="AT404" s="4"/>
     </row>
-    <row r="405" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:46">
       <c r="A405" s="4" t="s">
         <v>1916</v>
       </c>
@@ -37167,7 +37211,7 @@
       <c r="AS405" s="4"/>
       <c r="AT405" s="4"/>
     </row>
-    <row r="406" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:46">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="4"/>
@@ -37231,7 +37275,7 @@
       <c r="AS406" s="4"/>
       <c r="AT406" s="4"/>
     </row>
-    <row r="407" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:46">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="4"/>
@@ -37301,7 +37345,7 @@
       <c r="AS407" s="4"/>
       <c r="AT407" s="4"/>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:46">
       <c r="A408" s="4" t="s">
         <v>1935</v>
       </c>
@@ -37369,7 +37413,7 @@
       <c r="AS408" s="4"/>
       <c r="AT408" s="4"/>
     </row>
-    <row r="409" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:46">
       <c r="A409" s="4" t="s">
         <v>1935</v>
       </c>
@@ -37437,7 +37481,7 @@
       <c r="AS409" s="4"/>
       <c r="AT409" s="4"/>
     </row>
-    <row r="410" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:46">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="4"/>
@@ -37507,7 +37551,7 @@
       <c r="AS410" s="4"/>
       <c r="AT410" s="4"/>
     </row>
-    <row r="411" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:46">
       <c r="A411" s="4" t="s">
         <v>1950</v>
       </c>
@@ -37581,7 +37625,7 @@
       <c r="AS411" s="4"/>
       <c r="AT411" s="4"/>
     </row>
-    <row r="412" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:46">
       <c r="A412" s="4" t="s">
         <v>1950</v>
       </c>
@@ -37655,7 +37699,7 @@
       <c r="AS412" s="4"/>
       <c r="AT412" s="4"/>
     </row>
-    <row r="413" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:46">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="4"/>
@@ -37725,7 +37769,7 @@
       <c r="AS413" s="4"/>
       <c r="AT413" s="4"/>
     </row>
-    <row r="414" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:46">
       <c r="A414" s="4" t="s">
         <v>1964</v>
       </c>
@@ -37799,7 +37843,7 @@
       <c r="AS414" s="4"/>
       <c r="AT414" s="4"/>
     </row>
-    <row r="415" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:46">
       <c r="A415" s="4" t="s">
         <v>1964</v>
       </c>
@@ -37873,7 +37917,7 @@
       <c r="AS415" s="4"/>
       <c r="AT415" s="4"/>
     </row>
-    <row r="416" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:46">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="4"/>
@@ -37943,7 +37987,7 @@
       <c r="AS416" s="4"/>
       <c r="AT416" s="4"/>
     </row>
-    <row r="417" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:46">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="4"/>
@@ -38019,7 +38063,7 @@
       </c>
       <c r="AT417" s="4"/>
     </row>
-    <row r="418" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:46">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="4"/>
@@ -38089,7 +38133,7 @@
       <c r="AS418" s="4"/>
       <c r="AT418" s="4"/>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:46">
       <c r="A419" s="4" t="s">
         <v>1987</v>
       </c>
@@ -38163,7 +38207,7 @@
       <c r="AS419" s="4"/>
       <c r="AT419" s="4"/>
     </row>
-    <row r="420" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:46">
       <c r="A420" s="4" t="s">
         <v>1987</v>
       </c>
@@ -38237,7 +38281,7 @@
       <c r="AS420" s="4"/>
       <c r="AT420" s="4"/>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:46">
       <c r="A421" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38309,7 +38353,7 @@
       <c r="AS421" s="4"/>
       <c r="AT421" s="4"/>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:46">
       <c r="A422" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38381,7 +38425,7 @@
       <c r="AS422" s="4"/>
       <c r="AT422" s="4"/>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:46">
       <c r="A423" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38453,7 +38497,7 @@
       <c r="AS423" s="4"/>
       <c r="AT423" s="4"/>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:46">
       <c r="A424" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38525,7 +38569,7 @@
       <c r="AS424" s="4"/>
       <c r="AT424" s="4"/>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:46">
       <c r="A425" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38597,7 +38641,7 @@
       <c r="AS425" s="4"/>
       <c r="AT425" s="4"/>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:46">
       <c r="A426" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38669,7 +38713,7 @@
       <c r="AS426" s="4"/>
       <c r="AT426" s="4"/>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:46">
       <c r="A427" s="4" t="s">
         <v>1997</v>
       </c>
@@ -38741,7 +38785,7 @@
       <c r="AS427" s="4"/>
       <c r="AT427" s="4"/>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:46">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="4"/>
@@ -38805,7 +38849,7 @@
       <c r="AS428" s="4"/>
       <c r="AT428" s="4"/>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:46">
       <c r="A429" s="4" t="s">
         <v>2033</v>
       </c>
@@ -38877,7 +38921,7 @@
       <c r="AS429" s="4"/>
       <c r="AT429" s="4"/>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:46">
       <c r="A430" s="4" t="s">
         <v>2033</v>
       </c>
@@ -38949,7 +38993,7 @@
       <c r="AS430" s="4"/>
       <c r="AT430" s="4"/>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:46">
       <c r="A431" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39021,7 +39065,7 @@
       <c r="AS431" s="4"/>
       <c r="AT431" s="4"/>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:46">
       <c r="A432" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39093,7 +39137,7 @@
       <c r="AS432" s="4"/>
       <c r="AT432" s="4"/>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:46">
       <c r="A433" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39165,7 +39209,7 @@
       <c r="AS433" s="4"/>
       <c r="AT433" s="4"/>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:46">
       <c r="A434" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39237,7 +39281,7 @@
       <c r="AS434" s="4"/>
       <c r="AT434" s="4"/>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:46">
       <c r="A435" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39309,7 +39353,7 @@
       <c r="AS435" s="4"/>
       <c r="AT435" s="4"/>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:46">
       <c r="A436" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39381,7 +39425,7 @@
       <c r="AS436" s="4"/>
       <c r="AT436" s="4"/>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:46">
       <c r="A437" s="4" t="s">
         <v>2033</v>
       </c>
@@ -39453,7 +39497,7 @@
       <c r="AS437" s="4"/>
       <c r="AT437" s="4"/>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:46">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="4"/>
@@ -39517,7 +39561,7 @@
       <c r="AS438" s="4"/>
       <c r="AT438" s="4"/>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:46">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="4"/>
@@ -39581,7 +39625,7 @@
       <c r="AS439" s="4"/>
       <c r="AT439" s="4"/>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:46">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="4"/>
@@ -39651,7 +39695,7 @@
       <c r="AS440" s="4"/>
       <c r="AT440" s="4"/>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:46">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -39721,7 +39765,7 @@
       <c r="AS441" s="4"/>
       <c r="AT441" s="4"/>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:46">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="4"/>
@@ -39791,7 +39835,7 @@
       <c r="AS442" s="4"/>
       <c r="AT442" s="4"/>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:46">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="4"/>
@@ -39861,7 +39905,7 @@
       <c r="AS443" s="4"/>
       <c r="AT443" s="4"/>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:46">
       <c r="A444" s="4" t="s">
         <v>2101</v>
       </c>
@@ -39931,7 +39975,7 @@
       <c r="AS444" s="4"/>
       <c r="AT444" s="4"/>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:46">
       <c r="A445" s="4" t="s">
         <v>2101</v>
       </c>
@@ -40001,7 +40045,7 @@
       <c r="AS445" s="4"/>
       <c r="AT445" s="4"/>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:46">
       <c r="A446" s="4" t="s">
         <v>2101</v>
       </c>
@@ -40071,7 +40115,7 @@
       <c r="AS446" s="4"/>
       <c r="AT446" s="4"/>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:46">
       <c r="A447" s="4" t="s">
         <v>2101</v>
       </c>
@@ -40141,7 +40185,7 @@
       <c r="AS447" s="4"/>
       <c r="AT447" s="4"/>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:46">
       <c r="A448" s="4" t="s">
         <v>2101</v>
       </c>
@@ -40229,7 +40273,7 @@
       <c r="AS448" s="4"/>
       <c r="AT448" s="4"/>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:46">
       <c r="A449" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40305,7 +40349,7 @@
       <c r="AS449" s="4"/>
       <c r="AT449" s="4"/>
     </row>
-    <row r="450" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:46">
       <c r="A450" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40381,7 +40425,7 @@
       <c r="AS450" s="4"/>
       <c r="AT450" s="4"/>
     </row>
-    <row r="451" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:46">
       <c r="A451" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40457,7 +40501,7 @@
       <c r="AS451" s="4"/>
       <c r="AT451" s="4"/>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:46">
       <c r="A452" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40533,7 +40577,7 @@
       <c r="AS452" s="4"/>
       <c r="AT452" s="4"/>
     </row>
-    <row r="453" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:46">
       <c r="A453" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40609,7 +40653,7 @@
       <c r="AS453" s="4"/>
       <c r="AT453" s="4"/>
     </row>
-    <row r="454" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:46">
       <c r="A454" s="4" t="s">
         <v>2119</v>
       </c>
@@ -40697,7 +40741,7 @@
       <c r="AS454" s="4"/>
       <c r="AT454" s="4"/>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:46">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="4"/>
@@ -40761,7 +40805,7 @@
       <c r="AS455" s="4"/>
       <c r="AT455" s="4"/>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:46">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="4"/>
@@ -40833,7 +40877,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="457" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:46">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="4"/>
@@ -40905,7 +40949,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="458" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:46">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="4"/>
@@ -40975,7 +41019,7 @@
       <c r="AS458" s="4"/>
       <c r="AT458" s="4"/>
     </row>
-    <row r="459" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:46">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="4"/>
@@ -41043,7 +41087,7 @@
       <c r="AS459" s="4"/>
       <c r="AT459" s="4"/>
     </row>
-    <row r="460" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:46">
       <c r="A460" s="4" t="s">
         <v>2165</v>
       </c>
@@ -41119,7 +41163,7 @@
       <c r="AS460" s="4"/>
       <c r="AT460" s="4"/>
     </row>
-    <row r="461" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:46">
       <c r="A461" s="4" t="s">
         <v>2165</v>
       </c>
@@ -41206,9 +41250,9 @@
       <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -41348,7 +41392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41424,7 +41468,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41500,7 +41544,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41576,7 +41620,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41652,7 +41696,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41728,7 +41772,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41804,7 +41848,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41880,7 +41924,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="2" t="s">
         <v>2176</v>
       </c>
@@ -41956,7 +42000,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="2" t="s">
         <v>2205</v>
       </c>
@@ -42028,7 +42072,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="2" t="s">
         <v>2205</v>
       </c>
@@ -42102,7 +42146,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -42170,7 +42214,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2" t="s">
         <v>2219</v>
       </c>
@@ -42246,7 +42290,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="2" t="s">
         <v>2219</v>
       </c>
@@ -42322,7 +42366,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="2" t="s">
         <v>2219</v>
       </c>
@@ -42398,7 +42442,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="2" t="s">
         <v>2219</v>
       </c>
@@ -42474,7 +42518,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="2" t="s">
         <v>1699</v>
       </c>
@@ -42606,7 +42650,7 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -42670,7 +42714,7 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -42734,7 +42778,7 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -42802,7 +42846,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -42870,7 +42914,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -42938,7 +42982,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="2" t="s">
         <v>776</v>
       </c>
@@ -43058,7 +43102,7 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="2" t="s">
         <v>899</v>
       </c>
@@ -43170,7 +43214,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -43238,7 +43282,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -43338,7 +43382,7 @@
       <c r="AS26" s="4"/>
       <c r="AT26" s="4"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="4" t="s">
         <v>1165</v>
       </c>
@@ -43443,9 +43487,9 @@
       <selection activeCell="C7" sqref="A1:AT463"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -43585,7 +43629,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -43649,7 +43693,7 @@
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -43711,7 +43755,7 @@
       <c r="AS3" s="2"/>
       <c r="AT3" s="2"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -43773,7 +43817,7 @@
       <c r="AS4" s="2"/>
       <c r="AT4" s="2"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -43843,7 +43887,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="2"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -43913,7 +43957,7 @@
       <c r="AS6" s="2"/>
       <c r="AT6" s="2"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -43983,7 +44027,7 @@
       <c r="AS7" s="2"/>
       <c r="AT7" s="2"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46">
       <c r="A8" s="2" t="s">
         <v>64</v>
       </c>
@@ -44053,7 +44097,7 @@
       <c r="AS8" s="2"/>
       <c r="AT8" s="2"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46">
       <c r="A9" s="2" t="s">
         <v>64</v>
       </c>
@@ -44123,7 +44167,7 @@
       <c r="AS9" s="2"/>
       <c r="AT9" s="2"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -44193,7 +44237,7 @@
       <c r="AS10" s="2"/>
       <c r="AT10" s="2"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
@@ -44263,7 +44307,7 @@
       <c r="AS11" s="2"/>
       <c r="AT11" s="2"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -44363,7 +44407,7 @@
       <c r="AS12" s="2"/>
       <c r="AT12" s="2"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46">
       <c r="A13" s="2" t="s">
         <v>90</v>
       </c>
@@ -44439,7 +44483,7 @@
       <c r="AS13" s="2"/>
       <c r="AT13" s="2"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46">
       <c r="A14" s="2" t="s">
         <v>90</v>
       </c>
@@ -44515,7 +44559,7 @@
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46">
       <c r="A15" s="2" t="s">
         <v>102</v>
       </c>
@@ -44591,7 +44635,7 @@
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46">
       <c r="A16" s="2" t="s">
         <v>102</v>
       </c>
@@ -44667,7 +44711,7 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="2"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -44743,7 +44787,7 @@
       <c r="AS17" s="2"/>
       <c r="AT17" s="2"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46">
       <c r="A18" s="2" t="s">
         <v>113</v>
       </c>
@@ -44819,7 +44863,7 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="2"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:46">
       <c r="A19" s="2" t="s">
         <v>124</v>
       </c>
@@ -44895,7 +44939,7 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="2"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:46">
       <c r="A20" s="2" t="s">
         <v>124</v>
       </c>
@@ -44971,7 +45015,7 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="2"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:46">
       <c r="A21" s="2" t="s">
         <v>135</v>
       </c>
@@ -45047,7 +45091,7 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="2"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:46">
       <c r="A22" s="2" t="s">
         <v>135</v>
       </c>
@@ -45123,7 +45167,7 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:46">
       <c r="A23" s="2" t="s">
         <v>146</v>
       </c>
@@ -45199,7 +45243,7 @@
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:46">
       <c r="A24" s="2" t="s">
         <v>146</v>
       </c>
@@ -45275,7 +45319,7 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:46">
       <c r="A25" s="2" t="s">
         <v>157</v>
       </c>
@@ -45351,7 +45395,7 @@
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:46">
       <c r="A26" s="2" t="s">
         <v>157</v>
       </c>
@@ -45427,7 +45471,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="2"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46">
       <c r="A27" s="2" t="s">
         <v>168</v>
       </c>
@@ -45503,7 +45547,7 @@
       <c r="AS27" s="2"/>
       <c r="AT27" s="2"/>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46">
       <c r="A28" s="2" t="s">
         <v>168</v>
       </c>
@@ -45581,7 +45625,7 @@
       <c r="AS28" s="2"/>
       <c r="AT28" s="2"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46">
       <c r="A29" s="2" t="s">
         <v>177</v>
       </c>
@@ -45657,7 +45701,7 @@
       <c r="AS29" s="2"/>
       <c r="AT29" s="2"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:46">
       <c r="A30" s="2" t="s">
         <v>177</v>
       </c>
@@ -45735,7 +45779,7 @@
       <c r="AS30" s="2"/>
       <c r="AT30" s="2"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:46">
       <c r="A31" s="2" t="s">
         <v>185</v>
       </c>
@@ -45811,7 +45855,7 @@
       <c r="AS31" s="2"/>
       <c r="AT31" s="2"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:46">
       <c r="A32" s="2" t="s">
         <v>185</v>
       </c>
@@ -45889,7 +45933,7 @@
       <c r="AS32" s="2"/>
       <c r="AT32" s="2"/>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:46">
       <c r="A33" s="2" t="s">
         <v>193</v>
       </c>
@@ -45965,7 +46009,7 @@
       <c r="AS33" s="2"/>
       <c r="AT33" s="2"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:46">
       <c r="A34" s="2" t="s">
         <v>193</v>
       </c>
@@ -46043,7 +46087,7 @@
       <c r="AS34" s="2"/>
       <c r="AT34" s="2"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:46">
       <c r="A35" s="2" t="s">
         <v>201</v>
       </c>
@@ -46119,7 +46163,7 @@
       <c r="AS35" s="2"/>
       <c r="AT35" s="2"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:46">
       <c r="A36" s="2" t="s">
         <v>201</v>
       </c>
@@ -46197,7 +46241,7 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="2"/>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:46">
       <c r="A37" s="2" t="s">
         <v>209</v>
       </c>
@@ -46273,7 +46317,7 @@
       <c r="AS37" s="2"/>
       <c r="AT37" s="2"/>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:46">
       <c r="A38" s="2" t="s">
         <v>209</v>
       </c>
@@ -46351,7 +46395,7 @@
       <c r="AS38" s="2"/>
       <c r="AT38" s="2"/>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:46">
       <c r="A39" s="2" t="s">
         <v>217</v>
       </c>
@@ -46427,7 +46471,7 @@
       <c r="AS39" s="2"/>
       <c r="AT39" s="2"/>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:46">
       <c r="A40" s="2" t="s">
         <v>217</v>
       </c>
@@ -46505,7 +46549,7 @@
       <c r="AS40" s="2"/>
       <c r="AT40" s="2"/>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:46">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -46575,7 +46619,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="2"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -46645,7 +46689,7 @@
       <c r="AS42" s="2"/>
       <c r="AT42" s="2"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -46715,7 +46759,7 @@
       <c r="AS43" s="2"/>
       <c r="AT43" s="2"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -46785,7 +46829,7 @@
       <c r="AS44" s="2"/>
       <c r="AT44" s="2"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -46855,7 +46899,7 @@
       <c r="AS45" s="2"/>
       <c r="AT45" s="2"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -46925,7 +46969,7 @@
       <c r="AS46" s="2"/>
       <c r="AT46" s="2"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -46995,7 +47039,7 @@
       <c r="AS47" s="2"/>
       <c r="AT47" s="2"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -47067,7 +47111,7 @@
       <c r="AS48" s="2"/>
       <c r="AT48" s="2"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -47139,7 +47183,7 @@
       <c r="AS49" s="2"/>
       <c r="AT49" s="2"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -47211,7 +47255,7 @@
       <c r="AS50" s="2"/>
       <c r="AT50" s="2"/>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -47283,7 +47327,7 @@
       <c r="AS51" s="2"/>
       <c r="AT51" s="2"/>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -47355,7 +47399,7 @@
       <c r="AS52" s="2"/>
       <c r="AT52" s="2"/>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -47427,7 +47471,7 @@
       <c r="AS53" s="2"/>
       <c r="AT53" s="2"/>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -47499,7 +47543,7 @@
       <c r="AS54" s="2"/>
       <c r="AT54" s="2"/>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:46">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -47575,7 +47619,7 @@
       </c>
       <c r="AT55" s="2"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -47651,7 +47695,7 @@
       </c>
       <c r="AT56" s="2"/>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -47727,7 +47771,7 @@
       </c>
       <c r="AT57" s="2"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -47803,7 +47847,7 @@
       </c>
       <c r="AT58" s="2"/>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -47879,7 +47923,7 @@
       </c>
       <c r="AT59" s="2"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -47955,7 +47999,7 @@
       </c>
       <c r="AT60" s="2"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -48031,7 +48075,7 @@
       </c>
       <c r="AT61" s="2"/>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -48095,7 +48139,7 @@
       <c r="AS62" s="2"/>
       <c r="AT62" s="2"/>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46">
       <c r="A63" s="2" t="s">
         <v>324</v>
       </c>
@@ -48165,7 +48209,7 @@
       <c r="AS63" s="2"/>
       <c r="AT63" s="2"/>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:46">
       <c r="A64" s="2" t="s">
         <v>324</v>
       </c>
@@ -48235,7 +48279,7 @@
       <c r="AS64" s="2"/>
       <c r="AT64" s="2"/>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:46">
       <c r="A65" s="2" t="s">
         <v>324</v>
       </c>
@@ -48315,7 +48359,7 @@
       <c r="AS65" s="2"/>
       <c r="AT65" s="2"/>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:46">
       <c r="A66" s="2" t="s">
         <v>337</v>
       </c>
@@ -48391,7 +48435,7 @@
       <c r="AS66" s="2"/>
       <c r="AT66" s="2"/>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46">
       <c r="A67" s="2" t="s">
         <v>337</v>
       </c>
@@ -48467,7 +48511,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="2"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46">
       <c r="A68" s="2" t="s">
         <v>348</v>
       </c>
@@ -48543,7 +48587,7 @@
       <c r="AS68" s="2"/>
       <c r="AT68" s="2"/>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:46">
       <c r="A69" s="2" t="s">
         <v>348</v>
       </c>
@@ -48619,7 +48663,7 @@
       <c r="AS69" s="2"/>
       <c r="AT69" s="2"/>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:46">
       <c r="A70" s="2" t="s">
         <v>359</v>
       </c>
@@ -48695,7 +48739,7 @@
       <c r="AS70" s="2"/>
       <c r="AT70" s="2"/>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:46">
       <c r="A71" s="2" t="s">
         <v>359</v>
       </c>
@@ -48773,7 +48817,7 @@
       <c r="AS71" s="2"/>
       <c r="AT71" s="2"/>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:46">
       <c r="A72" s="2" t="s">
         <v>369</v>
       </c>
@@ -48849,7 +48893,7 @@
       <c r="AS72" s="2"/>
       <c r="AT72" s="2"/>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:46">
       <c r="A73" s="2" t="s">
         <v>369</v>
       </c>
@@ -48927,7 +48971,7 @@
       <c r="AS73" s="2"/>
       <c r="AT73" s="2"/>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:46">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -48997,7 +49041,7 @@
       <c r="AS74" s="2"/>
       <c r="AT74" s="2"/>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:46">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -49067,7 +49111,7 @@
       <c r="AS75" s="2"/>
       <c r="AT75" s="2"/>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:46">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -49139,7 +49183,7 @@
       <c r="AS76" s="2"/>
       <c r="AT76" s="2"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:46">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -49211,7 +49255,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="2"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -49287,7 +49331,7 @@
       </c>
       <c r="AT78" s="2"/>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -49363,7 +49407,7 @@
       </c>
       <c r="AT79" s="2"/>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -49427,7 +49471,7 @@
       <c r="AS80" s="2"/>
       <c r="AT80" s="2"/>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46">
       <c r="A81" s="2" t="s">
         <v>408</v>
       </c>
@@ -49503,7 +49547,7 @@
       <c r="AS81" s="2"/>
       <c r="AT81" s="2"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46">
       <c r="A82" s="2" t="s">
         <v>408</v>
       </c>
@@ -49579,7 +49623,7 @@
       <c r="AS82" s="2"/>
       <c r="AT82" s="2"/>
     </row>
-    <row r="83" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46">
       <c r="A83" s="2" t="s">
         <v>420</v>
       </c>
@@ -49655,7 +49699,7 @@
       <c r="AS83" s="2"/>
       <c r="AT83" s="2"/>
     </row>
-    <row r="84" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:46">
       <c r="A84" s="2" t="s">
         <v>420</v>
       </c>
@@ -49733,7 +49777,7 @@
       <c r="AS84" s="2"/>
       <c r="AT84" s="2"/>
     </row>
-    <row r="85" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:46">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -49803,7 +49847,7 @@
       <c r="AS85" s="2"/>
       <c r="AT85" s="2"/>
     </row>
-    <row r="86" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:46">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -49875,7 +49919,7 @@
       <c r="AS86" s="2"/>
       <c r="AT86" s="2"/>
     </row>
-    <row r="87" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:46">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -49951,7 +49995,7 @@
       </c>
       <c r="AT87" s="2"/>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -50015,7 +50059,7 @@
       <c r="AS88" s="2"/>
       <c r="AT88" s="2"/>
     </row>
-    <row r="89" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:46">
       <c r="A89" s="2" t="s">
         <v>445</v>
       </c>
@@ -50091,7 +50135,7 @@
       <c r="AS89" s="2"/>
       <c r="AT89" s="2"/>
     </row>
-    <row r="90" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:46">
       <c r="A90" s="2" t="s">
         <v>445</v>
       </c>
@@ -50167,7 +50211,7 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="2"/>
     </row>
-    <row r="91" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:46">
       <c r="A91" s="2" t="s">
         <v>457</v>
       </c>
@@ -50243,7 +50287,7 @@
       <c r="AS91" s="2"/>
       <c r="AT91" s="2"/>
     </row>
-    <row r="92" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:46">
       <c r="A92" s="2" t="s">
         <v>457</v>
       </c>
@@ -50321,7 +50365,7 @@
       <c r="AS92" s="2"/>
       <c r="AT92" s="2"/>
     </row>
-    <row r="93" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:46">
       <c r="A93" s="2" t="s">
         <v>466</v>
       </c>
@@ -50399,7 +50443,7 @@
       <c r="AS93" s="2"/>
       <c r="AT93" s="2"/>
     </row>
-    <row r="94" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:46">
       <c r="A94" s="2" t="s">
         <v>466</v>
       </c>
@@ -50481,7 +50525,7 @@
       </c>
       <c r="AT94" s="2"/>
     </row>
-    <row r="95" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:46">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -50551,7 +50595,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="2"/>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -50623,7 +50667,7 @@
       <c r="AS96" s="2"/>
       <c r="AT96" s="2"/>
     </row>
-    <row r="97" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:46">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -50699,7 +50743,7 @@
       </c>
       <c r="AT97" s="2"/>
     </row>
-    <row r="98" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:46">
       <c r="A98" s="2" t="s">
         <v>491</v>
       </c>
@@ -50769,7 +50813,7 @@
       <c r="AS98" s="2"/>
       <c r="AT98" s="2"/>
     </row>
-    <row r="99" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:46">
       <c r="A99" s="2" t="s">
         <v>491</v>
       </c>
@@ -50839,7 +50883,7 @@
       <c r="AS99" s="2"/>
       <c r="AT99" s="2"/>
     </row>
-    <row r="100" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:46">
       <c r="A100" s="2" t="s">
         <v>491</v>
       </c>
@@ -50909,7 +50953,7 @@
       <c r="AS100" s="2"/>
       <c r="AT100" s="2"/>
     </row>
-    <row r="101" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:46">
       <c r="A101" s="2" t="s">
         <v>491</v>
       </c>
@@ -50993,7 +51037,7 @@
       <c r="AS101" s="2"/>
       <c r="AT101" s="2"/>
     </row>
-    <row r="102" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:46">
       <c r="A102" s="2" t="s">
         <v>506</v>
       </c>
@@ -51069,7 +51113,7 @@
       <c r="AS102" s="2"/>
       <c r="AT102" s="2"/>
     </row>
-    <row r="103" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:46">
       <c r="A103" s="2" t="s">
         <v>506</v>
       </c>
@@ -51145,7 +51189,7 @@
       <c r="AS103" s="2"/>
       <c r="AT103" s="2"/>
     </row>
-    <row r="104" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:46">
       <c r="A104" s="2" t="s">
         <v>517</v>
       </c>
@@ -51221,7 +51265,7 @@
       <c r="AS104" s="2"/>
       <c r="AT104" s="2"/>
     </row>
-    <row r="105" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:46">
       <c r="A105" s="2" t="s">
         <v>517</v>
       </c>
@@ -51297,7 +51341,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="2"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46">
       <c r="A106" s="2" t="s">
         <v>528</v>
       </c>
@@ -51373,7 +51417,7 @@
       <c r="AS106" s="2"/>
       <c r="AT106" s="2"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46">
       <c r="A107" s="2" t="s">
         <v>528</v>
       </c>
@@ -51449,7 +51493,7 @@
       <c r="AS107" s="2"/>
       <c r="AT107" s="2"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46">
       <c r="A108" s="2" t="s">
         <v>539</v>
       </c>
@@ -51525,7 +51569,7 @@
       <c r="AS108" s="2"/>
       <c r="AT108" s="2"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46">
       <c r="A109" s="2" t="s">
         <v>539</v>
       </c>
@@ -51603,7 +51647,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="2"/>
     </row>
-    <row r="110" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46">
       <c r="A110" s="2" t="s">
         <v>547</v>
       </c>
@@ -51679,7 +51723,7 @@
       <c r="AS110" s="2"/>
       <c r="AT110" s="2"/>
     </row>
-    <row r="111" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:46">
       <c r="A111" s="2" t="s">
         <v>547</v>
       </c>
@@ -51757,7 +51801,7 @@
       <c r="AS111" s="2"/>
       <c r="AT111" s="2"/>
     </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:46">
       <c r="A112" s="2" t="s">
         <v>555</v>
       </c>
@@ -51833,7 +51877,7 @@
       <c r="AS112" s="2"/>
       <c r="AT112" s="2"/>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:46">
       <c r="A113" s="2" t="s">
         <v>555</v>
       </c>
@@ -51911,7 +51955,7 @@
       <c r="AS113" s="2"/>
       <c r="AT113" s="2"/>
     </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:46">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -51981,7 +52025,7 @@
       <c r="AS114" s="2"/>
       <c r="AT114" s="2"/>
     </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:46">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -52051,7 +52095,7 @@
       <c r="AS115" s="2"/>
       <c r="AT115" s="2"/>
     </row>
-    <row r="116" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:46">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -52121,7 +52165,7 @@
       <c r="AS116" s="2"/>
       <c r="AT116" s="2"/>
     </row>
-    <row r="117" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:46">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -52193,7 +52237,7 @@
       <c r="AS117" s="2"/>
       <c r="AT117" s="2"/>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -52265,7 +52309,7 @@
       <c r="AS118" s="2"/>
       <c r="AT118" s="2"/>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -52337,7 +52381,7 @@
       <c r="AS119" s="2"/>
       <c r="AT119" s="2"/>
     </row>
-    <row r="120" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:46">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -52413,7 +52457,7 @@
       </c>
       <c r="AT120" s="2"/>
     </row>
-    <row r="121" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:46">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -52489,7 +52533,7 @@
       </c>
       <c r="AT121" s="2"/>
     </row>
-    <row r="122" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:46">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -52565,7 +52609,7 @@
       </c>
       <c r="AT122" s="2"/>
     </row>
-    <row r="123" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:46">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -52641,7 +52685,7 @@
       <c r="AS123" s="2"/>
       <c r="AT123" s="2"/>
     </row>
-    <row r="124" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:46">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -52713,7 +52757,7 @@
       </c>
       <c r="AT124" s="2"/>
     </row>
-    <row r="125" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:46">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -52787,7 +52831,7 @@
       </c>
       <c r="AT125" s="2"/>
     </row>
-    <row r="126" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:46">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -52857,7 +52901,7 @@
       </c>
       <c r="AT126" s="2"/>
     </row>
-    <row r="127" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:46">
       <c r="A127" s="2" t="s">
         <v>633</v>
       </c>
@@ -52935,7 +52979,7 @@
       </c>
       <c r="AT127" s="2"/>
     </row>
-    <row r="128" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:46">
       <c r="A128" s="2" t="s">
         <v>633</v>
       </c>
@@ -53017,7 +53061,7 @@
       </c>
       <c r="AT128" s="2"/>
     </row>
-    <row r="129" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:46">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -53093,7 +53137,7 @@
       </c>
       <c r="AT129" s="2"/>
     </row>
-    <row r="130" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:46">
       <c r="A130" s="2" t="s">
         <v>651</v>
       </c>
@@ -53163,7 +53207,7 @@
       <c r="AS130" s="2"/>
       <c r="AT130" s="2"/>
     </row>
-    <row r="131" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:46">
       <c r="A131" s="2" t="s">
         <v>651</v>
       </c>
@@ -53233,7 +53277,7 @@
       <c r="AS131" s="2"/>
       <c r="AT131" s="2"/>
     </row>
-    <row r="132" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:46">
       <c r="A132" s="2" t="s">
         <v>651</v>
       </c>
@@ -53303,7 +53347,7 @@
       <c r="AS132" s="2"/>
       <c r="AT132" s="2"/>
     </row>
-    <row r="133" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:46">
       <c r="A133" s="2" t="s">
         <v>651</v>
       </c>
@@ -53373,7 +53417,7 @@
       <c r="AS133" s="2"/>
       <c r="AT133" s="2"/>
     </row>
-    <row r="134" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:46">
       <c r="A134" s="2" t="s">
         <v>651</v>
       </c>
@@ -53443,7 +53487,7 @@
       <c r="AS134" s="2"/>
       <c r="AT134" s="2"/>
     </row>
-    <row r="135" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:46">
       <c r="A135" s="2" t="s">
         <v>651</v>
       </c>
@@ -53535,7 +53579,7 @@
       <c r="AS135" s="2"/>
       <c r="AT135" s="2"/>
     </row>
-    <row r="136" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:46">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -53599,7 +53643,7 @@
       <c r="AS136" s="2"/>
       <c r="AT136" s="2"/>
     </row>
-    <row r="137" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:46">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -53669,7 +53713,7 @@
       <c r="AS137" s="2"/>
       <c r="AT137" s="2"/>
     </row>
-    <row r="138" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:46">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -53733,7 +53777,7 @@
       <c r="AS138" s="2"/>
       <c r="AT138" s="2"/>
     </row>
-    <row r="139" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:46">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -53807,7 +53851,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="140" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:46">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -53879,7 +53923,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="141" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:46">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -53951,7 +53995,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="142" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:46">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -54027,7 +54071,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="143" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:46">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -54101,7 +54145,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="144" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:46">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -54175,7 +54219,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:46">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -54239,7 +54283,7 @@
       <c r="AS145" s="2"/>
       <c r="AT145" s="2"/>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:46">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -54311,7 +54355,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:46">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -54383,7 +54427,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:46">
       <c r="A148" s="2" t="s">
         <v>738</v>
       </c>
@@ -54465,7 +54509,7 @@
       </c>
       <c r="AT148" s="2"/>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:46">
       <c r="A149" s="2" t="s">
         <v>738</v>
       </c>
@@ -54547,7 +54591,7 @@
       </c>
       <c r="AT149" s="2"/>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:46">
       <c r="A150" s="2" t="s">
         <v>738</v>
       </c>
@@ -54629,7 +54673,7 @@
       </c>
       <c r="AT150" s="2"/>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:46">
       <c r="A151" s="2" t="s">
         <v>738</v>
       </c>
@@ -54711,7 +54755,7 @@
       </c>
       <c r="AT151" s="2"/>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:46">
       <c r="A152" s="2" t="s">
         <v>738</v>
       </c>
@@ -54793,7 +54837,7 @@
       </c>
       <c r="AT152" s="2"/>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:46">
       <c r="A153" s="2" t="s">
         <v>738</v>
       </c>
@@ -54875,7 +54919,7 @@
       </c>
       <c r="AT153" s="2"/>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:46">
       <c r="A154" s="2" t="s">
         <v>738</v>
       </c>
@@ -54957,7 +55001,7 @@
       </c>
       <c r="AT154" s="2"/>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:46">
       <c r="A155" s="2" t="s">
         <v>738</v>
       </c>
@@ -55039,7 +55083,7 @@
       </c>
       <c r="AT155" s="2"/>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:46">
       <c r="A156" s="2" t="s">
         <v>738</v>
       </c>
@@ -55115,7 +55159,7 @@
       <c r="AS156" s="2"/>
       <c r="AT156" s="2"/>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:46">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -55179,7 +55223,7 @@
       <c r="AS157" s="2"/>
       <c r="AT157" s="2"/>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:46">
       <c r="A158" s="2" t="s">
         <v>776</v>
       </c>
@@ -55255,7 +55299,7 @@
       <c r="AS158" s="2"/>
       <c r="AT158" s="2"/>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:46">
       <c r="A159" s="2" t="s">
         <v>776</v>
       </c>
@@ -55331,7 +55375,7 @@
       <c r="AS159" s="2"/>
       <c r="AT159" s="2"/>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:46">
       <c r="A160" s="2" t="s">
         <v>776</v>
       </c>
@@ -55407,7 +55451,7 @@
       <c r="AS160" s="2"/>
       <c r="AT160" s="2"/>
     </row>
-    <row r="161" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:46">
       <c r="A161" s="2" t="s">
         <v>776</v>
       </c>
@@ -55483,7 +55527,7 @@
       <c r="AS161" s="2"/>
       <c r="AT161" s="2"/>
     </row>
-    <row r="162" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:46">
       <c r="A162" s="2" t="s">
         <v>776</v>
       </c>
@@ -55559,7 +55603,7 @@
       <c r="AS162" s="2"/>
       <c r="AT162" s="2"/>
     </row>
-    <row r="163" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:46">
       <c r="A163" s="2" t="s">
         <v>776</v>
       </c>
@@ -55635,7 +55679,7 @@
       <c r="AS163" s="2"/>
       <c r="AT163" s="2"/>
     </row>
-    <row r="164" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:46">
       <c r="A164" s="2" t="s">
         <v>776</v>
       </c>
@@ -55711,7 +55755,7 @@
       <c r="AS164" s="2"/>
       <c r="AT164" s="2"/>
     </row>
-    <row r="165" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:46">
       <c r="A165" s="2" t="s">
         <v>776</v>
       </c>
@@ -55787,7 +55831,7 @@
       <c r="AS165" s="2"/>
       <c r="AT165" s="2"/>
     </row>
-    <row r="166" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:46">
       <c r="A166" s="2" t="s">
         <v>776</v>
       </c>
@@ -55863,7 +55907,7 @@
       <c r="AS166" s="2"/>
       <c r="AT166" s="2"/>
     </row>
-    <row r="167" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:46">
       <c r="A167" s="2" t="s">
         <v>776</v>
       </c>
@@ -55939,7 +55983,7 @@
       <c r="AS167" s="2"/>
       <c r="AT167" s="2"/>
     </row>
-    <row r="168" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:46">
       <c r="A168" s="2" t="s">
         <v>776</v>
       </c>
@@ -56015,7 +56059,7 @@
       <c r="AS168" s="2"/>
       <c r="AT168" s="2"/>
     </row>
-    <row r="169" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:46">
       <c r="A169" s="2" t="s">
         <v>776</v>
       </c>
@@ -56091,7 +56135,7 @@
       <c r="AS169" s="2"/>
       <c r="AT169" s="2"/>
     </row>
-    <row r="170" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:46">
       <c r="A170" s="2" t="s">
         <v>776</v>
       </c>
@@ -56167,7 +56211,7 @@
       <c r="AS170" s="2"/>
       <c r="AT170" s="2"/>
     </row>
-    <row r="171" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:46">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -56237,7 +56281,7 @@
       <c r="AS171" s="2"/>
       <c r="AT171" s="2"/>
     </row>
-    <row r="172" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:46">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -56307,7 +56351,7 @@
       <c r="AS172" s="2"/>
       <c r="AT172" s="2"/>
     </row>
-    <row r="173" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:46">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -56377,7 +56421,7 @@
       <c r="AS173" s="2"/>
       <c r="AT173" s="2"/>
     </row>
-    <row r="174" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:46">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -56447,7 +56491,7 @@
       <c r="AS174" s="2"/>
       <c r="AT174" s="2"/>
     </row>
-    <row r="175" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:46">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -56517,7 +56561,7 @@
       <c r="AS175" s="2"/>
       <c r="AT175" s="2"/>
     </row>
-    <row r="176" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:46">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -56587,7 +56631,7 @@
       <c r="AS176" s="2"/>
       <c r="AT176" s="2"/>
     </row>
-    <row r="177" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:46">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -56657,7 +56701,7 @@
       <c r="AS177" s="2"/>
       <c r="AT177" s="2"/>
     </row>
-    <row r="178" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:46">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -56727,7 +56771,7 @@
       <c r="AS178" s="2"/>
       <c r="AT178" s="2"/>
     </row>
-    <row r="179" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:46">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -56797,7 +56841,7 @@
       <c r="AS179" s="2"/>
       <c r="AT179" s="2"/>
     </row>
-    <row r="180" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:46">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -56867,7 +56911,7 @@
       <c r="AS180" s="2"/>
       <c r="AT180" s="2"/>
     </row>
-    <row r="181" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:46">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -56937,7 +56981,7 @@
       <c r="AS181" s="2"/>
       <c r="AT181" s="2"/>
     </row>
-    <row r="182" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:46">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -57007,7 +57051,7 @@
       <c r="AS182" s="2"/>
       <c r="AT182" s="2"/>
     </row>
-    <row r="183" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:46">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -57071,7 +57115,7 @@
       <c r="AS183" s="2"/>
       <c r="AT183" s="2"/>
     </row>
-    <row r="184" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:46">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -57139,7 +57183,7 @@
       <c r="AS184" s="2"/>
       <c r="AT184" s="2"/>
     </row>
-    <row r="185" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:46">
       <c r="A185" s="2" t="s">
         <v>899</v>
       </c>
@@ -57209,7 +57253,7 @@
       <c r="AS185" s="2"/>
       <c r="AT185" s="2"/>
     </row>
-    <row r="186" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:46">
       <c r="A186" s="2" t="s">
         <v>899</v>
       </c>
@@ -57279,7 +57323,7 @@
       <c r="AS186" s="2"/>
       <c r="AT186" s="2"/>
     </row>
-    <row r="187" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:46">
       <c r="A187" s="2" t="s">
         <v>899</v>
       </c>
@@ -57349,7 +57393,7 @@
       <c r="AS187" s="2"/>
       <c r="AT187" s="2"/>
     </row>
-    <row r="188" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:46">
       <c r="A188" s="2" t="s">
         <v>899</v>
       </c>
@@ -57419,7 +57463,7 @@
       <c r="AS188" s="2"/>
       <c r="AT188" s="2"/>
     </row>
-    <row r="189" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:46">
       <c r="A189" s="2" t="s">
         <v>899</v>
       </c>
@@ -57489,7 +57533,7 @@
       <c r="AS189" s="2"/>
       <c r="AT189" s="2"/>
     </row>
-    <row r="190" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:46">
       <c r="A190" s="2" t="s">
         <v>899</v>
       </c>
@@ -57559,7 +57603,7 @@
       <c r="AS190" s="2"/>
       <c r="AT190" s="2"/>
     </row>
-    <row r="191" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:46">
       <c r="A191" s="2" t="s">
         <v>899</v>
       </c>
@@ -57629,7 +57673,7 @@
       <c r="AS191" s="2"/>
       <c r="AT191" s="2"/>
     </row>
-    <row r="192" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:46">
       <c r="A192" s="2" t="s">
         <v>899</v>
       </c>
@@ -57699,7 +57743,7 @@
       <c r="AS192" s="2"/>
       <c r="AT192" s="2"/>
     </row>
-    <row r="193" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:46">
       <c r="A193" s="2" t="s">
         <v>899</v>
       </c>
@@ -57773,7 +57817,7 @@
       <c r="AS193" s="2"/>
       <c r="AT193" s="2"/>
     </row>
-    <row r="194" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:46">
       <c r="A194" s="2" t="s">
         <v>899</v>
       </c>
@@ -57845,7 +57889,7 @@
       <c r="AS194" s="2"/>
       <c r="AT194" s="2"/>
     </row>
-    <row r="195" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:46">
       <c r="A195" s="2" t="s">
         <v>899</v>
       </c>
@@ -57919,7 +57963,7 @@
       <c r="AS195" s="2"/>
       <c r="AT195" s="2"/>
     </row>
-    <row r="196" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:46">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -57991,7 +58035,7 @@
       <c r="AS196" s="2"/>
       <c r="AT196" s="2"/>
     </row>
-    <row r="197" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:46">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -58063,7 +58107,7 @@
       <c r="AS197" s="2"/>
       <c r="AT197" s="2"/>
     </row>
-    <row r="198" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:46">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -58141,7 +58185,7 @@
       </c>
       <c r="AT198" s="2"/>
     </row>
-    <row r="199" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:46">
       <c r="A199" s="2" t="s">
         <v>952</v>
       </c>
@@ -58217,7 +58261,7 @@
       <c r="AS199" s="2"/>
       <c r="AT199" s="2"/>
     </row>
-    <row r="200" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:46">
       <c r="A200" s="2" t="s">
         <v>952</v>
       </c>
@@ -58293,7 +58337,7 @@
       <c r="AS200" s="2"/>
       <c r="AT200" s="2"/>
     </row>
-    <row r="201" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:46">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -58365,7 +58409,7 @@
       <c r="AS201" s="2"/>
       <c r="AT201" s="2"/>
     </row>
-    <row r="202" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:46">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -58437,7 +58481,7 @@
       <c r="AS202" s="2"/>
       <c r="AT202" s="2"/>
     </row>
-    <row r="203" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:46">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -58515,7 +58559,7 @@
       </c>
       <c r="AT203" s="2"/>
     </row>
-    <row r="204" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:46">
       <c r="A204" s="2" t="s">
         <v>976</v>
       </c>
@@ -58591,7 +58635,7 @@
       <c r="AS204" s="2"/>
       <c r="AT204" s="2"/>
     </row>
-    <row r="205" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:46">
       <c r="A205" s="2" t="s">
         <v>976</v>
       </c>
@@ -58667,7 +58711,7 @@
       <c r="AS205" s="2"/>
       <c r="AT205" s="2"/>
     </row>
-    <row r="206" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:46">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -58739,7 +58783,7 @@
       <c r="AS206" s="2"/>
       <c r="AT206" s="2"/>
     </row>
-    <row r="207" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:46">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -58811,7 +58855,7 @@
       <c r="AS207" s="2"/>
       <c r="AT207" s="2"/>
     </row>
-    <row r="208" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:46">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -58889,7 +58933,7 @@
       </c>
       <c r="AT208" s="2"/>
     </row>
-    <row r="209" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:46">
       <c r="A209" s="2" t="s">
         <v>1001</v>
       </c>
@@ -58965,7 +59009,7 @@
       <c r="AS209" s="2"/>
       <c r="AT209" s="2"/>
     </row>
-    <row r="210" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:46">
       <c r="A210" s="2" t="s">
         <v>1001</v>
       </c>
@@ -59041,7 +59085,7 @@
       <c r="AS210" s="2"/>
       <c r="AT210" s="2"/>
     </row>
-    <row r="211" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:46">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -59113,7 +59157,7 @@
       <c r="AS211" s="2"/>
       <c r="AT211" s="2"/>
     </row>
-    <row r="212" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:46">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -59185,7 +59229,7 @@
       <c r="AS212" s="2"/>
       <c r="AT212" s="2"/>
     </row>
-    <row r="213" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:46">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -59263,7 +59307,7 @@
       </c>
       <c r="AT213" s="2"/>
     </row>
-    <row r="214" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:46">
       <c r="A214" s="2" t="s">
         <v>1026</v>
       </c>
@@ -59339,7 +59383,7 @@
       <c r="AS214" s="2"/>
       <c r="AT214" s="2"/>
     </row>
-    <row r="215" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:46">
       <c r="A215" s="2" t="s">
         <v>1026</v>
       </c>
@@ -59415,7 +59459,7 @@
       <c r="AS215" s="2"/>
       <c r="AT215" s="2"/>
     </row>
-    <row r="216" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:46">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -59487,7 +59531,7 @@
       <c r="AS216" s="2"/>
       <c r="AT216" s="2"/>
     </row>
-    <row r="217" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:46">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -59559,7 +59603,7 @@
       <c r="AS217" s="2"/>
       <c r="AT217" s="2"/>
     </row>
-    <row r="218" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:46">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -59637,7 +59681,7 @@
       </c>
       <c r="AT218" s="2"/>
     </row>
-    <row r="219" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:46">
       <c r="A219" s="2" t="s">
         <v>1051</v>
       </c>
@@ -59713,7 +59757,7 @@
       <c r="AS219" s="2"/>
       <c r="AT219" s="2"/>
     </row>
-    <row r="220" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:46">
       <c r="A220" s="2" t="s">
         <v>1051</v>
       </c>
@@ -59789,7 +59833,7 @@
       <c r="AS220" s="2"/>
       <c r="AT220" s="2"/>
     </row>
-    <row r="221" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:46">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -59861,7 +59905,7 @@
       <c r="AS221" s="2"/>
       <c r="AT221" s="2"/>
     </row>
-    <row r="222" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:46">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -59933,7 +59977,7 @@
       <c r="AS222" s="2"/>
       <c r="AT222" s="2"/>
     </row>
-    <row r="223" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:46">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -60011,7 +60055,7 @@
       </c>
       <c r="AT223" s="2"/>
     </row>
-    <row r="224" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:46">
       <c r="A224" s="2" t="s">
         <v>1076</v>
       </c>
@@ -60087,7 +60131,7 @@
       <c r="AS224" s="2"/>
       <c r="AT224" s="2"/>
     </row>
-    <row r="225" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:46">
       <c r="A225" s="2" t="s">
         <v>1076</v>
       </c>
@@ -60163,7 +60207,7 @@
       <c r="AS225" s="2"/>
       <c r="AT225" s="2"/>
     </row>
-    <row r="226" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:46">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -60235,7 +60279,7 @@
       <c r="AS226" s="2"/>
       <c r="AT226" s="2"/>
     </row>
-    <row r="227" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:46">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -60307,7 +60351,7 @@
       <c r="AS227" s="2"/>
       <c r="AT227" s="2"/>
     </row>
-    <row r="228" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:46">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -60385,7 +60429,7 @@
       </c>
       <c r="AT228" s="2"/>
     </row>
-    <row r="229" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:46">
       <c r="A229" s="2" t="s">
         <v>1101</v>
       </c>
@@ -60461,7 +60505,7 @@
       <c r="AS229" s="2"/>
       <c r="AT229" s="2"/>
     </row>
-    <row r="230" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:46">
       <c r="A230" s="2" t="s">
         <v>1101</v>
       </c>
@@ -60537,7 +60581,7 @@
       <c r="AS230" s="2"/>
       <c r="AT230" s="2"/>
     </row>
-    <row r="231" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:46">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -60609,7 +60653,7 @@
       <c r="AS231" s="2"/>
       <c r="AT231" s="2"/>
     </row>
-    <row r="232" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:46">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -60681,7 +60725,7 @@
       <c r="AS232" s="2"/>
       <c r="AT232" s="2"/>
     </row>
-    <row r="233" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:46">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -60759,7 +60803,7 @@
       </c>
       <c r="AT233" s="2"/>
     </row>
-    <row r="234" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:46">
       <c r="A234" s="2" t="s">
         <v>1126</v>
       </c>
@@ -60835,7 +60879,7 @@
       <c r="AS234" s="2"/>
       <c r="AT234" s="2"/>
     </row>
-    <row r="235" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:46">
       <c r="A235" s="2" t="s">
         <v>1126</v>
       </c>
@@ -60911,7 +60955,7 @@
       <c r="AS235" s="2"/>
       <c r="AT235" s="2"/>
     </row>
-    <row r="236" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:46">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -60983,7 +61027,7 @@
       <c r="AS236" s="2"/>
       <c r="AT236" s="2"/>
     </row>
-    <row r="237" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:46">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -61055,7 +61099,7 @@
       <c r="AS237" s="2"/>
       <c r="AT237" s="2"/>
     </row>
-    <row r="238" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:46">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -61133,7 +61177,7 @@
       </c>
       <c r="AT238" s="2"/>
     </row>
-    <row r="239" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:46">
       <c r="A239" s="2" t="s">
         <v>1151</v>
       </c>
@@ -61209,7 +61253,7 @@
       <c r="AS239" s="2"/>
       <c r="AT239" s="2"/>
     </row>
-    <row r="240" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:46">
       <c r="A240" s="2" t="s">
         <v>1151</v>
       </c>
@@ -61285,7 +61329,7 @@
       <c r="AS240" s="2"/>
       <c r="AT240" s="2"/>
     </row>
-    <row r="241" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:46">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -61349,7 +61393,7 @@
       <c r="AS241" s="2"/>
       <c r="AT241" s="2"/>
     </row>
-    <row r="242" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:46">
       <c r="A242" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61425,7 +61469,7 @@
       <c r="AS242" s="2"/>
       <c r="AT242" s="2"/>
     </row>
-    <row r="243" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:46">
       <c r="A243" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61501,7 +61545,7 @@
       <c r="AS243" s="2"/>
       <c r="AT243" s="2"/>
     </row>
-    <row r="244" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:46">
       <c r="A244" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61577,7 +61621,7 @@
       <c r="AS244" s="2"/>
       <c r="AT244" s="2"/>
     </row>
-    <row r="245" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:46">
       <c r="A245" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61653,7 +61697,7 @@
       <c r="AS245" s="2"/>
       <c r="AT245" s="2"/>
     </row>
-    <row r="246" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:46">
       <c r="A246" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61729,7 +61773,7 @@
       <c r="AS246" s="2"/>
       <c r="AT246" s="2"/>
     </row>
-    <row r="247" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:46">
       <c r="A247" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61805,7 +61849,7 @@
       <c r="AS247" s="2"/>
       <c r="AT247" s="2"/>
     </row>
-    <row r="248" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:46">
       <c r="A248" s="2" t="s">
         <v>1165</v>
       </c>
@@ -61897,7 +61941,7 @@
       <c r="AS248" s="2"/>
       <c r="AT248" s="2"/>
     </row>
-    <row r="249" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:46">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -61969,7 +62013,7 @@
       <c r="AS249" s="2"/>
       <c r="AT249" s="2"/>
     </row>
-    <row r="250" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:46">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -62041,7 +62085,7 @@
       <c r="AS250" s="2"/>
       <c r="AT250" s="2"/>
     </row>
-    <row r="251" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:46">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -62119,7 +62163,7 @@
       </c>
       <c r="AT251" s="2"/>
     </row>
-    <row r="252" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:46">
       <c r="A252" s="2" t="s">
         <v>1202</v>
       </c>
@@ -62195,7 +62239,7 @@
       <c r="AS252" s="2"/>
       <c r="AT252" s="2"/>
     </row>
-    <row r="253" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:46">
       <c r="A253" s="2" t="s">
         <v>1202</v>
       </c>
@@ -62271,7 +62315,7 @@
       <c r="AS253" s="2"/>
       <c r="AT253" s="2"/>
     </row>
-    <row r="254" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:46">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -62343,7 +62387,7 @@
       <c r="AS254" s="2"/>
       <c r="AT254" s="2"/>
     </row>
-    <row r="255" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:46">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -62415,7 +62459,7 @@
       <c r="AS255" s="2"/>
       <c r="AT255" s="2"/>
     </row>
-    <row r="256" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:46">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -62493,7 +62537,7 @@
       </c>
       <c r="AT256" s="2"/>
     </row>
-    <row r="257" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:46">
       <c r="A257" s="2" t="s">
         <v>1227</v>
       </c>
@@ -62569,7 +62613,7 @@
       <c r="AS257" s="2"/>
       <c r="AT257" s="2"/>
     </row>
-    <row r="258" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:46">
       <c r="A258" s="2" t="s">
         <v>1227</v>
       </c>
@@ -62645,7 +62689,7 @@
       <c r="AS258" s="2"/>
       <c r="AT258" s="2"/>
     </row>
-    <row r="259" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:46">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -62717,7 +62761,7 @@
       <c r="AS259" s="2"/>
       <c r="AT259" s="2"/>
     </row>
-    <row r="260" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:46">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -62789,7 +62833,7 @@
       <c r="AS260" s="2"/>
       <c r="AT260" s="2"/>
     </row>
-    <row r="261" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:46">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -62867,7 +62911,7 @@
       </c>
       <c r="AT261" s="2"/>
     </row>
-    <row r="262" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:46">
       <c r="A262" s="2" t="s">
         <v>1252</v>
       </c>
@@ -62943,7 +62987,7 @@
       <c r="AS262" s="2"/>
       <c r="AT262" s="2"/>
     </row>
-    <row r="263" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:46">
       <c r="A263" s="2" t="s">
         <v>1252</v>
       </c>
@@ -63019,7 +63063,7 @@
       <c r="AS263" s="2"/>
       <c r="AT263" s="2"/>
     </row>
-    <row r="264" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:46">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -63091,7 +63135,7 @@
       <c r="AS264" s="2"/>
       <c r="AT264" s="2"/>
     </row>
-    <row r="265" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:46">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -63163,7 +63207,7 @@
       <c r="AS265" s="2"/>
       <c r="AT265" s="2"/>
     </row>
-    <row r="266" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:46">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -63241,7 +63285,7 @@
       </c>
       <c r="AT266" s="2"/>
     </row>
-    <row r="267" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:46">
       <c r="A267" s="2" t="s">
         <v>1277</v>
       </c>
@@ -63317,7 +63361,7 @@
       <c r="AS267" s="2"/>
       <c r="AT267" s="2"/>
     </row>
-    <row r="268" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:46">
       <c r="A268" s="2" t="s">
         <v>1277</v>
       </c>
@@ -63393,7 +63437,7 @@
       <c r="AS268" s="2"/>
       <c r="AT268" s="2"/>
     </row>
-    <row r="269" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:46">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -63465,7 +63509,7 @@
       <c r="AS269" s="2"/>
       <c r="AT269" s="2"/>
     </row>
-    <row r="270" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:46">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -63537,7 +63581,7 @@
       <c r="AS270" s="2"/>
       <c r="AT270" s="2"/>
     </row>
-    <row r="271" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:46">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -63615,7 +63659,7 @@
       </c>
       <c r="AT271" s="2"/>
     </row>
-    <row r="272" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:46">
       <c r="A272" s="2" t="s">
         <v>1302</v>
       </c>
@@ -63691,7 +63735,7 @@
       <c r="AS272" s="2"/>
       <c r="AT272" s="2"/>
     </row>
-    <row r="273" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:46">
       <c r="A273" s="2" t="s">
         <v>1302</v>
       </c>
@@ -63767,7 +63811,7 @@
       <c r="AS273" s="2"/>
       <c r="AT273" s="2"/>
     </row>
-    <row r="274" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:46">
       <c r="A274" s="2" t="s">
         <v>1312</v>
       </c>
@@ -63837,7 +63881,7 @@
       <c r="AS274" s="2"/>
       <c r="AT274" s="2"/>
     </row>
-    <row r="275" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:46">
       <c r="A275" s="2" t="s">
         <v>1312</v>
       </c>
@@ -63907,7 +63951,7 @@
       <c r="AS275" s="2"/>
       <c r="AT275" s="2"/>
     </row>
-    <row r="276" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:46">
       <c r="A276" s="2" t="s">
         <v>1312</v>
       </c>
@@ -63983,7 +64027,7 @@
       <c r="AS276" s="2"/>
       <c r="AT276" s="2"/>
     </row>
-    <row r="277" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:46">
       <c r="A277" s="2" t="s">
         <v>1312</v>
       </c>
@@ -64063,7 +64107,7 @@
       <c r="AS277" s="2"/>
       <c r="AT277" s="2"/>
     </row>
-    <row r="278" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:46">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -64135,7 +64179,7 @@
       <c r="AS278" s="2"/>
       <c r="AT278" s="2"/>
     </row>
-    <row r="279" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:46">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -64207,7 +64251,7 @@
       <c r="AS279" s="2"/>
       <c r="AT279" s="2"/>
     </row>
-    <row r="280" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:46">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -64285,7 +64329,7 @@
       </c>
       <c r="AT280" s="2"/>
     </row>
-    <row r="281" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:46">
       <c r="A281" s="2" t="s">
         <v>1343</v>
       </c>
@@ -64361,7 +64405,7 @@
       <c r="AS281" s="2"/>
       <c r="AT281" s="2"/>
     </row>
-    <row r="282" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:46">
       <c r="A282" s="2" t="s">
         <v>1343</v>
       </c>
@@ -64437,7 +64481,7 @@
       <c r="AS282" s="2"/>
       <c r="AT282" s="2"/>
     </row>
-    <row r="283" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:46">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -64509,7 +64553,7 @@
       <c r="AS283" s="2"/>
       <c r="AT283" s="2"/>
     </row>
-    <row r="284" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:46">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -64581,7 +64625,7 @@
       <c r="AS284" s="2"/>
       <c r="AT284" s="2"/>
     </row>
-    <row r="285" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:46">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -64659,7 +64703,7 @@
       </c>
       <c r="AT285" s="2"/>
     </row>
-    <row r="286" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:46">
       <c r="A286" s="2" t="s">
         <v>1368</v>
       </c>
@@ -64735,7 +64779,7 @@
       <c r="AS286" s="2"/>
       <c r="AT286" s="2"/>
     </row>
-    <row r="287" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:46">
       <c r="A287" s="2" t="s">
         <v>1368</v>
       </c>
@@ -64811,7 +64855,7 @@
       <c r="AS287" s="2"/>
       <c r="AT287" s="2"/>
     </row>
-    <row r="288" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:46">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -64881,7 +64925,7 @@
       <c r="AS288" s="2"/>
       <c r="AT288" s="2"/>
     </row>
-    <row r="289" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:46">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -64951,7 +64995,7 @@
       <c r="AS289" s="2"/>
       <c r="AT289" s="2"/>
     </row>
-    <row r="290" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:46">
       <c r="A290" s="2" t="s">
         <v>1387</v>
       </c>
@@ -65021,7 +65065,7 @@
       <c r="AS290" s="2"/>
       <c r="AT290" s="2"/>
     </row>
-    <row r="291" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:46">
       <c r="A291" s="2" t="s">
         <v>1387</v>
       </c>
@@ -65091,7 +65135,7 @@
       <c r="AS291" s="2"/>
       <c r="AT291" s="2"/>
     </row>
-    <row r="292" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:46">
       <c r="A292" s="2" t="s">
         <v>1387</v>
       </c>
@@ -65161,7 +65205,7 @@
       <c r="AS292" s="2"/>
       <c r="AT292" s="2"/>
     </row>
-    <row r="293" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:46">
       <c r="A293" s="2" t="s">
         <v>1387</v>
       </c>
@@ -65237,7 +65281,7 @@
       <c r="AS293" s="2"/>
       <c r="AT293" s="2"/>
     </row>
-    <row r="294" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:46">
       <c r="A294" s="2" t="s">
         <v>1387</v>
       </c>
@@ -65321,7 +65365,7 @@
       <c r="AS294" s="2"/>
       <c r="AT294" s="2"/>
     </row>
-    <row r="295" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:46">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -65393,7 +65437,7 @@
       <c r="AS295" s="2"/>
       <c r="AT295" s="2"/>
     </row>
-    <row r="296" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:46">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -65465,7 +65509,7 @@
       <c r="AS296" s="2"/>
       <c r="AT296" s="2"/>
     </row>
-    <row r="297" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:46">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -65543,7 +65587,7 @@
       </c>
       <c r="AT297" s="2"/>
     </row>
-    <row r="298" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:46">
       <c r="A298" s="2" t="s">
         <v>1420</v>
       </c>
@@ -65619,7 +65663,7 @@
       <c r="AS298" s="2"/>
       <c r="AT298" s="2"/>
     </row>
-    <row r="299" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:46">
       <c r="A299" s="2" t="s">
         <v>1420</v>
       </c>
@@ -65695,7 +65739,7 @@
       <c r="AS299" s="2"/>
       <c r="AT299" s="2"/>
     </row>
-    <row r="300" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:46">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -65767,7 +65811,7 @@
       <c r="AS300" s="2"/>
       <c r="AT300" s="2"/>
     </row>
-    <row r="301" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:46">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -65839,7 +65883,7 @@
       <c r="AS301" s="2"/>
       <c r="AT301" s="2"/>
     </row>
-    <row r="302" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:46">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -65917,7 +65961,7 @@
       </c>
       <c r="AT302" s="2"/>
     </row>
-    <row r="303" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:46">
       <c r="A303" s="2" t="s">
         <v>1445</v>
       </c>
@@ -65993,7 +66037,7 @@
       <c r="AS303" s="2"/>
       <c r="AT303" s="2"/>
     </row>
-    <row r="304" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:46">
       <c r="A304" s="2" t="s">
         <v>1445</v>
       </c>
@@ -66069,7 +66113,7 @@
       <c r="AS304" s="2"/>
       <c r="AT304" s="2"/>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:46">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -66141,7 +66185,7 @@
       <c r="AS305" s="2"/>
       <c r="AT305" s="2"/>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:46">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -66213,7 +66257,7 @@
       <c r="AS306" s="2"/>
       <c r="AT306" s="2"/>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:46">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -66291,7 +66335,7 @@
       </c>
       <c r="AT307" s="2"/>
     </row>
-    <row r="308" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:46">
       <c r="A308" s="2" t="s">
         <v>1470</v>
       </c>
@@ -66367,7 +66411,7 @@
       <c r="AS308" s="2"/>
       <c r="AT308" s="2"/>
     </row>
-    <row r="309" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:46">
       <c r="A309" s="2" t="s">
         <v>1470</v>
       </c>
@@ -66443,7 +66487,7 @@
       <c r="AS309" s="2"/>
       <c r="AT309" s="2"/>
     </row>
-    <row r="310" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:46">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -66513,7 +66557,7 @@
       <c r="AS310" s="2"/>
       <c r="AT310" s="2"/>
     </row>
-    <row r="311" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:46">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -66583,7 +66627,7 @@
       <c r="AS311" s="2"/>
       <c r="AT311" s="2"/>
     </row>
-    <row r="312" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:46">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -66647,7 +66691,7 @@
       <c r="AS312" s="2"/>
       <c r="AT312" s="2"/>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:46">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -66711,7 +66755,7 @@
       <c r="AS313" s="2"/>
       <c r="AT313" s="2"/>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:46">
       <c r="A314" s="2" t="s">
         <v>1496</v>
       </c>
@@ -66787,7 +66831,7 @@
       <c r="AS314" s="2"/>
       <c r="AT314" s="2"/>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:46">
       <c r="A315" s="2" t="s">
         <v>1496</v>
       </c>
@@ -66863,7 +66907,7 @@
       <c r="AS315" s="2"/>
       <c r="AT315" s="2"/>
     </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:46">
       <c r="A316" s="2" t="s">
         <v>1496</v>
       </c>
@@ -66939,7 +66983,7 @@
       <c r="AS316" s="2"/>
       <c r="AT316" s="2"/>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:46">
       <c r="A317" s="2" t="s">
         <v>1496</v>
       </c>
@@ -67015,7 +67059,7 @@
       <c r="AS317" s="2"/>
       <c r="AT317" s="2"/>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:46">
       <c r="A318" s="2" t="s">
         <v>1496</v>
       </c>
@@ -67091,7 +67135,7 @@
       <c r="AS318" s="2"/>
       <c r="AT318" s="2"/>
     </row>
-    <row r="319" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:46">
       <c r="A319" s="2" t="s">
         <v>1496</v>
       </c>
@@ -67167,7 +67211,7 @@
       <c r="AS319" s="2"/>
       <c r="AT319" s="2"/>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:46">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -67237,7 +67281,7 @@
       <c r="AS320" s="2"/>
       <c r="AT320" s="2"/>
     </row>
-    <row r="321" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:46">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -67307,7 +67351,7 @@
       <c r="AS321" s="2"/>
       <c r="AT321" s="2"/>
     </row>
-    <row r="322" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:46">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -67371,7 +67415,7 @@
       <c r="AS322" s="2"/>
       <c r="AT322" s="2"/>
     </row>
-    <row r="323" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:46">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -67441,7 +67485,7 @@
       <c r="AS323" s="2"/>
       <c r="AT323" s="2"/>
     </row>
-    <row r="324" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:46">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -67511,7 +67555,7 @@
       <c r="AS324" s="2"/>
       <c r="AT324" s="2"/>
     </row>
-    <row r="325" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:46">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -67581,7 +67625,7 @@
       <c r="AS325" s="2"/>
       <c r="AT325" s="2"/>
     </row>
-    <row r="326" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:46">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -67657,7 +67701,7 @@
       </c>
       <c r="AT326" s="2"/>
     </row>
-    <row r="327" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:46">
       <c r="A327" s="2" t="s">
         <v>1547</v>
       </c>
@@ -67733,7 +67777,7 @@
       <c r="AS327" s="2"/>
       <c r="AT327" s="2"/>
     </row>
-    <row r="328" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:46">
       <c r="A328" s="2" t="s">
         <v>1547</v>
       </c>
@@ -67809,7 +67853,7 @@
       <c r="AS328" s="2"/>
       <c r="AT328" s="2"/>
     </row>
-    <row r="329" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:46">
       <c r="A329" s="2" t="s">
         <v>1558</v>
       </c>
@@ -67883,7 +67927,7 @@
       <c r="AS329" s="2"/>
       <c r="AT329" s="2"/>
     </row>
-    <row r="330" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:46">
       <c r="A330" s="2" t="s">
         <v>1558</v>
       </c>
@@ -67957,7 +68001,7 @@
       <c r="AS330" s="2"/>
       <c r="AT330" s="2"/>
     </row>
-    <row r="331" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:46">
       <c r="A331" s="2" t="s">
         <v>1558</v>
       </c>
@@ -68031,7 +68075,7 @@
       <c r="AS331" s="2"/>
       <c r="AT331" s="2"/>
     </row>
-    <row r="332" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:46">
       <c r="A332" s="2" t="s">
         <v>1558</v>
       </c>
@@ -68105,7 +68149,7 @@
       <c r="AS332" s="2"/>
       <c r="AT332" s="2"/>
     </row>
-    <row r="333" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:46">
       <c r="A333" s="2" t="s">
         <v>1578</v>
       </c>
@@ -68179,7 +68223,7 @@
       <c r="AS333" s="2"/>
       <c r="AT333" s="2"/>
     </row>
-    <row r="334" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:46">
       <c r="A334" s="2" t="s">
         <v>1578</v>
       </c>
@@ -68253,7 +68297,7 @@
       <c r="AS334" s="2"/>
       <c r="AT334" s="2"/>
     </row>
-    <row r="335" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:46">
       <c r="A335" s="2" t="s">
         <v>1578</v>
       </c>
@@ -68327,7 +68371,7 @@
       <c r="AS335" s="2"/>
       <c r="AT335" s="2"/>
     </row>
-    <row r="336" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:46">
       <c r="A336" s="2" t="s">
         <v>1578</v>
       </c>
@@ -68401,7 +68445,7 @@
       <c r="AS336" s="2"/>
       <c r="AT336" s="2"/>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:46">
       <c r="A337" s="2" t="s">
         <v>1596</v>
       </c>
@@ -68475,7 +68519,7 @@
       <c r="AS337" s="2"/>
       <c r="AT337" s="2"/>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:46">
       <c r="A338" s="2" t="s">
         <v>1596</v>
       </c>
@@ -68549,7 +68593,7 @@
       <c r="AS338" s="2"/>
       <c r="AT338" s="2"/>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:46">
       <c r="A339" s="2" t="s">
         <v>1596</v>
       </c>
@@ -68623,7 +68667,7 @@
       <c r="AS339" s="2"/>
       <c r="AT339" s="2"/>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:46">
       <c r="A340" s="2" t="s">
         <v>1596</v>
       </c>
@@ -68697,7 +68741,7 @@
       <c r="AS340" s="2"/>
       <c r="AT340" s="2"/>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:46">
       <c r="A341" s="2" t="s">
         <v>1596</v>
       </c>
@@ -68771,7 +68815,7 @@
       <c r="AS341" s="2"/>
       <c r="AT341" s="2"/>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:46">
       <c r="A342" s="2" t="s">
         <v>1619</v>
       </c>
@@ -68851,7 +68895,7 @@
       </c>
       <c r="AT342" s="2"/>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:46">
       <c r="A343" s="2" t="s">
         <v>1619</v>
       </c>
@@ -68931,7 +68975,7 @@
       </c>
       <c r="AT343" s="2"/>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:46">
       <c r="A344" s="2" t="s">
         <v>1619</v>
       </c>
@@ -69011,7 +69055,7 @@
       </c>
       <c r="AT344" s="2"/>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:46">
       <c r="A345" s="2" t="s">
         <v>1619</v>
       </c>
@@ -69091,7 +69135,7 @@
       </c>
       <c r="AT345" s="2"/>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:46">
       <c r="A346" s="2" t="s">
         <v>1619</v>
       </c>
@@ -69171,7 +69215,7 @@
       </c>
       <c r="AT346" s="2"/>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:46">
       <c r="A347" s="2" t="s">
         <v>1653</v>
       </c>
@@ -69241,7 +69285,7 @@
       <c r="AS347" s="2"/>
       <c r="AT347" s="2"/>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:46">
       <c r="A348" s="2" t="s">
         <v>1653</v>
       </c>
@@ -69311,7 +69355,7 @@
       <c r="AS348" s="2"/>
       <c r="AT348" s="2"/>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:46">
       <c r="A349" s="2" t="s">
         <v>1653</v>
       </c>
@@ -69381,7 +69425,7 @@
       <c r="AS349" s="2"/>
       <c r="AT349" s="2"/>
     </row>
-    <row r="350" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:46">
       <c r="A350" s="2" t="s">
         <v>1653</v>
       </c>
@@ -69465,7 +69509,7 @@
       <c r="AS350" s="2"/>
       <c r="AT350" s="2"/>
     </row>
-    <row r="351" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:46">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -69537,7 +69581,7 @@
       <c r="AS351" s="2"/>
       <c r="AT351" s="2"/>
     </row>
-    <row r="352" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:46">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -69609,7 +69653,7 @@
       <c r="AS352" s="2"/>
       <c r="AT352" s="2"/>
     </row>
-    <row r="353" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:46">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -69681,7 +69725,7 @@
       <c r="AS353" s="2"/>
       <c r="AT353" s="2"/>
     </row>
-    <row r="354" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:46">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -69753,7 +69797,7 @@
       <c r="AS354" s="2"/>
       <c r="AT354" s="2"/>
     </row>
-    <row r="355" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:46">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -69825,7 +69869,7 @@
       <c r="AS355" s="2"/>
       <c r="AT355" s="2"/>
     </row>
-    <row r="356" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:46">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -69897,7 +69941,7 @@
       <c r="AS356" s="2"/>
       <c r="AT356" s="2"/>
     </row>
-    <row r="357" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:46">
       <c r="A357" s="2" t="s">
         <v>1699</v>
       </c>
@@ -69967,7 +70011,7 @@
       <c r="AS357" s="2"/>
       <c r="AT357" s="2"/>
     </row>
-    <row r="358" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:46">
       <c r="A358" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70037,7 +70081,7 @@
       <c r="AS358" s="2"/>
       <c r="AT358" s="2"/>
     </row>
-    <row r="359" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:46">
       <c r="A359" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70107,7 +70151,7 @@
       <c r="AS359" s="2"/>
       <c r="AT359" s="2"/>
     </row>
-    <row r="360" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:46">
       <c r="A360" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70177,7 +70221,7 @@
       <c r="AS360" s="2"/>
       <c r="AT360" s="2"/>
     </row>
-    <row r="361" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:46">
       <c r="A361" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70247,7 +70291,7 @@
       <c r="AS361" s="2"/>
       <c r="AT361" s="2"/>
     </row>
-    <row r="362" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:46">
       <c r="A362" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70317,7 +70361,7 @@
       <c r="AS362" s="2"/>
       <c r="AT362" s="2"/>
     </row>
-    <row r="363" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:46">
       <c r="A363" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70387,7 +70431,7 @@
       <c r="AS363" s="2"/>
       <c r="AT363" s="2"/>
     </row>
-    <row r="364" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:46">
       <c r="A364" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70457,7 +70501,7 @@
       <c r="AS364" s="2"/>
       <c r="AT364" s="2"/>
     </row>
-    <row r="365" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:46">
       <c r="A365" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70527,7 +70571,7 @@
       <c r="AS365" s="2"/>
       <c r="AT365" s="2"/>
     </row>
-    <row r="366" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:46">
       <c r="A366" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70597,7 +70641,7 @@
       <c r="AS366" s="2"/>
       <c r="AT366" s="2"/>
     </row>
-    <row r="367" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:46">
       <c r="A367" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70667,7 +70711,7 @@
       <c r="AS367" s="2"/>
       <c r="AT367" s="2"/>
     </row>
-    <row r="368" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:46">
       <c r="A368" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70737,7 +70781,7 @@
       <c r="AS368" s="2"/>
       <c r="AT368" s="2"/>
     </row>
-    <row r="369" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:46">
       <c r="A369" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70807,7 +70851,7 @@
       <c r="AS369" s="2"/>
       <c r="AT369" s="2"/>
     </row>
-    <row r="370" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:46">
       <c r="A370" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70877,7 +70921,7 @@
       <c r="AS370" s="2"/>
       <c r="AT370" s="2"/>
     </row>
-    <row r="371" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:46">
       <c r="A371" s="2" t="s">
         <v>1699</v>
       </c>
@@ -70947,7 +70991,7 @@
       <c r="AS371" s="2"/>
       <c r="AT371" s="2"/>
     </row>
-    <row r="372" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:46">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -71019,7 +71063,7 @@
       <c r="AS372" s="2"/>
       <c r="AT372" s="2"/>
     </row>
-    <row r="373" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:46">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -71091,7 +71135,7 @@
       <c r="AS373" s="2"/>
       <c r="AT373" s="2"/>
     </row>
-    <row r="374" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:46">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -71163,7 +71207,7 @@
       <c r="AS374" s="2"/>
       <c r="AT374" s="2"/>
     </row>
-    <row r="375" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:46">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -71235,7 +71279,7 @@
       <c r="AS375" s="2"/>
       <c r="AT375" s="2"/>
     </row>
-    <row r="376" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:46">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -71307,7 +71351,7 @@
       <c r="AS376" s="2"/>
       <c r="AT376" s="2"/>
     </row>
-    <row r="377" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:46">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -71379,7 +71423,7 @@
       <c r="AS377" s="2"/>
       <c r="AT377" s="2"/>
     </row>
-    <row r="378" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:46">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -71451,7 +71495,7 @@
       <c r="AS378" s="2"/>
       <c r="AT378" s="2"/>
     </row>
-    <row r="379" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:46">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -71523,7 +71567,7 @@
       <c r="AS379" s="2"/>
       <c r="AT379" s="2"/>
     </row>
-    <row r="380" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:46">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -71595,7 +71639,7 @@
       <c r="AS380" s="2"/>
       <c r="AT380" s="2"/>
     </row>
-    <row r="381" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:46">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -71667,7 +71711,7 @@
       <c r="AS381" s="2"/>
       <c r="AT381" s="2"/>
     </row>
-    <row r="382" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:46">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -71739,7 +71783,7 @@
       <c r="AS382" s="2"/>
       <c r="AT382" s="2"/>
     </row>
-    <row r="383" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:46">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -71811,7 +71855,7 @@
       <c r="AS383" s="2"/>
       <c r="AT383" s="2"/>
     </row>
-    <row r="384" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:46">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -71883,7 +71927,7 @@
       <c r="AS384" s="2"/>
       <c r="AT384" s="2"/>
     </row>
-    <row r="385" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:46">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -71955,7 +71999,7 @@
       <c r="AS385" s="2"/>
       <c r="AT385" s="2"/>
     </row>
-    <row r="386" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:46">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -72027,7 +72071,7 @@
       <c r="AS386" s="2"/>
       <c r="AT386" s="2"/>
     </row>
-    <row r="387" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:46">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -72099,7 +72143,7 @@
       <c r="AS387" s="2"/>
       <c r="AT387" s="2"/>
     </row>
-    <row r="388" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:46">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -72171,7 +72215,7 @@
       <c r="AS388" s="2"/>
       <c r="AT388" s="2"/>
     </row>
-    <row r="389" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:46">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -72243,7 +72287,7 @@
       <c r="AS389" s="2"/>
       <c r="AT389" s="2"/>
     </row>
-    <row r="390" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:46">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -72315,7 +72359,7 @@
       <c r="AS390" s="2"/>
       <c r="AT390" s="2"/>
     </row>
-    <row r="391" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:46">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -72387,7 +72431,7 @@
       <c r="AS391" s="2"/>
       <c r="AT391" s="2"/>
     </row>
-    <row r="392" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:46">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -72459,7 +72503,7 @@
       <c r="AS392" s="2"/>
       <c r="AT392" s="2"/>
     </row>
-    <row r="393" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:46">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -72531,7 +72575,7 @@
       <c r="AS393" s="2"/>
       <c r="AT393" s="2"/>
     </row>
-    <row r="394" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:46">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -72603,7 +72647,7 @@
       <c r="AS394" s="2"/>
       <c r="AT394" s="2"/>
     </row>
-    <row r="395" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:46">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -72675,7 +72719,7 @@
       <c r="AS395" s="2"/>
       <c r="AT395" s="2"/>
     </row>
-    <row r="396" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:46">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -72747,7 +72791,7 @@
       <c r="AS396" s="2"/>
       <c r="AT396" s="2"/>
     </row>
-    <row r="397" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:46">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -72819,7 +72863,7 @@
       <c r="AS397" s="2"/>
       <c r="AT397" s="2"/>
     </row>
-    <row r="398" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:46">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -72891,7 +72935,7 @@
       <c r="AS398" s="2"/>
       <c r="AT398" s="2"/>
     </row>
-    <row r="399" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:46">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -72963,7 +73007,7 @@
       <c r="AS399" s="2"/>
       <c r="AT399" s="2"/>
     </row>
-    <row r="400" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:46">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -73035,7 +73079,7 @@
       <c r="AS400" s="2"/>
       <c r="AT400" s="2"/>
     </row>
-    <row r="401" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:46">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -73107,7 +73151,7 @@
       <c r="AS401" s="2"/>
       <c r="AT401" s="2"/>
     </row>
-    <row r="402" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:46">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -73171,7 +73215,7 @@
       <c r="AS402" s="2"/>
       <c r="AT402" s="2"/>
     </row>
-    <row r="403" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:46">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -73241,7 +73285,7 @@
       <c r="AS403" s="2"/>
       <c r="AT403" s="2"/>
     </row>
-    <row r="404" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:46">
       <c r="A404" s="2" t="s">
         <v>1906</v>
       </c>
@@ -73309,7 +73353,7 @@
       <c r="AS404" s="2"/>
       <c r="AT404" s="2"/>
     </row>
-    <row r="405" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:46">
       <c r="A405" s="2" t="s">
         <v>1906</v>
       </c>
@@ -73377,7 +73421,7 @@
       <c r="AS405" s="2"/>
       <c r="AT405" s="2"/>
     </row>
-    <row r="406" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:46">
       <c r="A406" s="2" t="s">
         <v>1916</v>
       </c>
@@ -73445,7 +73489,7 @@
       <c r="AS406" s="2"/>
       <c r="AT406" s="2"/>
     </row>
-    <row r="407" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:46">
       <c r="A407" s="2" t="s">
         <v>1916</v>
       </c>
@@ -73513,7 +73557,7 @@
       <c r="AS407" s="2"/>
       <c r="AT407" s="2"/>
     </row>
-    <row r="408" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:46">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -73577,7 +73621,7 @@
       <c r="AS408" s="2"/>
       <c r="AT408" s="2"/>
     </row>
-    <row r="409" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:46">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -73647,7 +73691,7 @@
       <c r="AS409" s="2"/>
       <c r="AT409" s="2"/>
     </row>
-    <row r="410" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:46">
       <c r="A410" s="2" t="s">
         <v>1935</v>
       </c>
@@ -73715,7 +73759,7 @@
       <c r="AS410" s="2"/>
       <c r="AT410" s="2"/>
     </row>
-    <row r="411" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:46">
       <c r="A411" s="2" t="s">
         <v>1935</v>
       </c>
@@ -73783,7 +73827,7 @@
       <c r="AS411" s="2"/>
       <c r="AT411" s="2"/>
     </row>
-    <row r="412" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:46">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -73853,7 +73897,7 @@
       <c r="AS412" s="2"/>
       <c r="AT412" s="2"/>
     </row>
-    <row r="413" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:46">
       <c r="A413" s="2" t="s">
         <v>1950</v>
       </c>
@@ -73927,7 +73971,7 @@
       <c r="AS413" s="2"/>
       <c r="AT413" s="2"/>
     </row>
-    <row r="414" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:46">
       <c r="A414" s="2" t="s">
         <v>1950</v>
       </c>
@@ -74001,7 +74045,7 @@
       <c r="AS414" s="2"/>
       <c r="AT414" s="2"/>
     </row>
-    <row r="415" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:46">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -74071,7 +74115,7 @@
       <c r="AS415" s="2"/>
       <c r="AT415" s="2"/>
     </row>
-    <row r="416" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:46">
       <c r="A416" s="2" t="s">
         <v>1964</v>
       </c>
@@ -74145,7 +74189,7 @@
       <c r="AS416" s="2"/>
       <c r="AT416" s="2"/>
     </row>
-    <row r="417" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:46">
       <c r="A417" s="2" t="s">
         <v>1964</v>
       </c>
@@ -74219,7 +74263,7 @@
       <c r="AS417" s="2"/>
       <c r="AT417" s="2"/>
     </row>
-    <row r="418" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:46">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -74289,7 +74333,7 @@
       <c r="AS418" s="2"/>
       <c r="AT418" s="2"/>
     </row>
-    <row r="419" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:46">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -74365,7 +74409,7 @@
       </c>
       <c r="AT419" s="2"/>
     </row>
-    <row r="420" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:46">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -74435,7 +74479,7 @@
       <c r="AS420" s="2"/>
       <c r="AT420" s="2"/>
     </row>
-    <row r="421" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:46">
       <c r="A421" s="2" t="s">
         <v>1987</v>
       </c>
@@ -74509,7 +74553,7 @@
       <c r="AS421" s="2"/>
       <c r="AT421" s="2"/>
     </row>
-    <row r="422" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:46">
       <c r="A422" s="2" t="s">
         <v>1987</v>
       </c>
@@ -74583,7 +74627,7 @@
       <c r="AS422" s="2"/>
       <c r="AT422" s="2"/>
     </row>
-    <row r="423" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:46">
       <c r="A423" s="2" t="s">
         <v>1997</v>
       </c>
@@ -74655,7 +74699,7 @@
       <c r="AS423" s="2"/>
       <c r="AT423" s="2"/>
     </row>
-    <row r="424" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:46">
       <c r="A424" s="2" t="s">
         <v>1997</v>
       </c>
@@ -74727,7 +74771,7 @@
       <c r="AS424" s="2"/>
       <c r="AT424" s="2"/>
     </row>
-    <row r="425" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:46">
       <c r="A425" s="2" t="s">
         <v>1997</v>
       </c>
@@ -74799,7 +74843,7 @@
       <c r="AS425" s="2"/>
       <c r="AT425" s="2"/>
     </row>
-    <row r="426" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:46">
       <c r="A426" s="2" t="s">
         <v>1997</v>
       </c>
@@ -74871,7 +74915,7 @@
       <c r="AS426" s="2"/>
       <c r="AT426" s="2"/>
     </row>
-    <row r="427" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:46">
       <c r="A427" s="2" t="s">
         <v>1997</v>
       </c>
@@ -74943,7 +74987,7 @@
       <c r="AS427" s="2"/>
       <c r="AT427" s="2"/>
     </row>
-    <row r="428" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:46">
       <c r="A428" s="2" t="s">
         <v>1997</v>
       </c>
@@ -75015,7 +75059,7 @@
       <c r="AS428" s="2"/>
       <c r="AT428" s="2"/>
     </row>
-    <row r="429" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:46">
       <c r="A429" s="2" t="s">
         <v>1997</v>
       </c>
@@ -75087,7 +75131,7 @@
       <c r="AS429" s="2"/>
       <c r="AT429" s="2"/>
     </row>
-    <row r="430" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:46">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -75151,7 +75195,7 @@
       <c r="AS430" s="2"/>
       <c r="AT430" s="2"/>
     </row>
-    <row r="431" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:46">
       <c r="A431" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75223,7 +75267,7 @@
       <c r="AS431" s="2"/>
       <c r="AT431" s="2"/>
     </row>
-    <row r="432" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:46">
       <c r="A432" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75295,7 +75339,7 @@
       <c r="AS432" s="2"/>
       <c r="AT432" s="2"/>
     </row>
-    <row r="433" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:46">
       <c r="A433" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75367,7 +75411,7 @@
       <c r="AS433" s="2"/>
       <c r="AT433" s="2"/>
     </row>
-    <row r="434" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:46">
       <c r="A434" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75439,7 +75483,7 @@
       <c r="AS434" s="2"/>
       <c r="AT434" s="2"/>
     </row>
-    <row r="435" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:46">
       <c r="A435" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75511,7 +75555,7 @@
       <c r="AS435" s="2"/>
       <c r="AT435" s="2"/>
     </row>
-    <row r="436" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:46">
       <c r="A436" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75583,7 +75627,7 @@
       <c r="AS436" s="2"/>
       <c r="AT436" s="2"/>
     </row>
-    <row r="437" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:46">
       <c r="A437" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75655,7 +75699,7 @@
       <c r="AS437" s="2"/>
       <c r="AT437" s="2"/>
     </row>
-    <row r="438" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:46">
       <c r="A438" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75727,7 +75771,7 @@
       <c r="AS438" s="2"/>
       <c r="AT438" s="2"/>
     </row>
-    <row r="439" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:46">
       <c r="A439" s="2" t="s">
         <v>2033</v>
       </c>
@@ -75799,7 +75843,7 @@
       <c r="AS439" s="2"/>
       <c r="AT439" s="2"/>
     </row>
-    <row r="440" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:46">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -75863,7 +75907,7 @@
       <c r="AS440" s="2"/>
       <c r="AT440" s="2"/>
     </row>
-    <row r="441" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:46">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -75927,7 +75971,7 @@
       <c r="AS441" s="2"/>
       <c r="AT441" s="2"/>
     </row>
-    <row r="442" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:46">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -75997,7 +76041,7 @@
       <c r="AS442" s="2"/>
       <c r="AT442" s="2"/>
     </row>
-    <row r="443" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:46">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -76067,7 +76111,7 @@
       <c r="AS443" s="2"/>
       <c r="AT443" s="2"/>
     </row>
-    <row r="444" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:46">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -76137,7 +76181,7 @@
       <c r="AS444" s="2"/>
       <c r="AT444" s="2"/>
     </row>
-    <row r="445" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:46">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -76207,7 +76251,7 @@
       <c r="AS445" s="2"/>
       <c r="AT445" s="2"/>
     </row>
-    <row r="446" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:46">
       <c r="A446" s="2" t="s">
         <v>2101</v>
       </c>
@@ -76277,7 +76321,7 @@
       <c r="AS446" s="2"/>
       <c r="AT446" s="2"/>
     </row>
-    <row r="447" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:46">
       <c r="A447" s="2" t="s">
         <v>2101</v>
       </c>
@@ -76347,7 +76391,7 @@
       <c r="AS447" s="2"/>
       <c r="AT447" s="2"/>
     </row>
-    <row r="448" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:46">
       <c r="A448" s="2" t="s">
         <v>2101</v>
       </c>
@@ -76417,7 +76461,7 @@
       <c r="AS448" s="2"/>
       <c r="AT448" s="2"/>
     </row>
-    <row r="449" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:46">
       <c r="A449" s="2" t="s">
         <v>2101</v>
       </c>
@@ -76487,7 +76531,7 @@
       <c r="AS449" s="2"/>
       <c r="AT449" s="2"/>
     </row>
-    <row r="450" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:46">
       <c r="A450" s="2" t="s">
         <v>2101</v>
       </c>
@@ -76575,7 +76619,7 @@
       <c r="AS450" s="2"/>
       <c r="AT450" s="2"/>
     </row>
-    <row r="451" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:46">
       <c r="A451" s="2" t="s">
         <v>2119</v>
       </c>
@@ -76651,7 +76695,7 @@
       <c r="AS451" s="2"/>
       <c r="AT451" s="2"/>
     </row>
-    <row r="452" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:46">
       <c r="A452" s="2" t="s">
         <v>2119</v>
       </c>
@@ -76727,7 +76771,7 @@
       <c r="AS452" s="2"/>
       <c r="AT452" s="2"/>
     </row>
-    <row r="453" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:46">
       <c r="A453" s="2" t="s">
         <v>2119</v>
       </c>
@@ -76803,7 +76847,7 @@
       <c r="AS453" s="2"/>
       <c r="AT453" s="2"/>
     </row>
-    <row r="454" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:46">
       <c r="A454" s="2" t="s">
         <v>2119</v>
       </c>
@@ -76879,7 +76923,7 @@
       <c r="AS454" s="2"/>
       <c r="AT454" s="2"/>
     </row>
-    <row r="455" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:46">
       <c r="A455" s="2" t="s">
         <v>2119</v>
       </c>
@@ -76955,7 +76999,7 @@
       <c r="AS455" s="2"/>
       <c r="AT455" s="2"/>
     </row>
-    <row r="456" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:46">
       <c r="A456" s="2" t="s">
         <v>2119</v>
       </c>
@@ -77043,7 +77087,7 @@
       <c r="AS456" s="2"/>
       <c r="AT456" s="2"/>
     </row>
-    <row r="457" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:46">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -77107,7 +77151,7 @@
       <c r="AS457" s="2"/>
       <c r="AT457" s="2"/>
     </row>
-    <row r="458" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:46">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -77179,7 +77223,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="459" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:46">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -77251,7 +77295,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="460" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:46">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -77321,7 +77365,7 @@
       <c r="AS460" s="2"/>
       <c r="AT460" s="2"/>
     </row>
-    <row r="461" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:46">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -77389,7 +77433,7 @@
       <c r="AS461" s="2"/>
       <c r="AT461" s="2"/>
     </row>
-    <row r="462" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:46">
       <c r="A462" s="2" t="s">
         <v>2165</v>
       </c>
@@ -77465,7 +77509,7 @@
       <c r="AS462" s="2"/>
       <c r="AT462" s="2"/>
     </row>
-    <row r="463" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:46">
       <c r="A463" s="2" t="s">
         <v>2165</v>
       </c>
@@ -77543,4 +77587,362 @@
   <autoFilter ref="J1:J463" xr:uid="{34FE29CE-F9C9-4408-836F-2196C211D29B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181381B9-543F-5F43-BCE1-3FC83BAC967C}">
+  <dimension ref="A1:AT7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46">
+      <c r="D2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2284</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="D3" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2150</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>2151</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="D4" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2287</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1899</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="D5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2289</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>2285</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2288</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="D6" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2240</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2290</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="D7" t="s">
+        <v>2242</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2243</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2292</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2245</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2291</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>